--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913959.2045566291</v>
+        <v>-914757.5719944455</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.7020343388662</v>
+        <v>261.6938579839128</v>
       </c>
       <c r="C11" t="n">
-        <v>244.9625436714603</v>
+        <v>244.9625436714604</v>
       </c>
       <c r="D11" t="n">
-        <v>234.5821807471161</v>
+        <v>234.5821807471162</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.2713114730585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.3061370030429</v>
+        <v>292.306137003043</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.7336715177292</v>
       </c>
       <c r="I11" t="n">
-        <v>62.92019570772383</v>
+        <v>62.92019570772391</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.85443390360336</v>
+        <v>71.85443390360345</v>
       </c>
       <c r="T11" t="n">
-        <v>98.63966577724239</v>
+        <v>98.63966577724244</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.5075649930723</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>176.0533813033544</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>43.34957360286261</v>
       </c>
       <c r="C12" t="n">
-        <v>49.0030319199187</v>
+        <v>49.00303191991877</v>
       </c>
       <c r="D12" t="n">
-        <v>24.08987156716327</v>
+        <v>24.08987156716334</v>
       </c>
       <c r="E12" t="n">
-        <v>34.01088169969154</v>
+        <v>34.01088169969161</v>
       </c>
       <c r="F12" t="n">
-        <v>21.483680076067</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>13.71918251221727</v>
+        <v>13.71918251221734</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S12" t="n">
-        <v>163.7333265046506</v>
+        <v>93.23204372611913</v>
       </c>
       <c r="T12" t="n">
-        <v>189.6870019858878</v>
+        <v>75.22543536205841</v>
       </c>
       <c r="U12" t="n">
         <v>224.6386589300076</v>
@@ -1515,7 +1515,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.64859941110373</v>
+        <v>81.6485994111038</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.93285527108483</v>
+        <v>58.06113948320159</v>
       </c>
       <c r="C13" t="n">
-        <v>45.31400092372004</v>
+        <v>45.31400092372012</v>
       </c>
       <c r="D13" t="n">
-        <v>26.98301450703707</v>
+        <v>26.98301450703714</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95207216571688</v>
+        <v>24.95207216571696</v>
       </c>
       <c r="F13" t="n">
-        <v>24.13646940232221</v>
+        <v>24.13646940232228</v>
       </c>
       <c r="G13" t="n">
-        <v>45.63105716341549</v>
+        <v>45.63105716341556</v>
       </c>
       <c r="H13" t="n">
-        <v>37.51344541500131</v>
+        <v>37.51344541500139</v>
       </c>
       <c r="I13" t="n">
-        <v>24.6394398493067</v>
+        <v>20.51115563718817</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.75808757999047</v>
+        <v>40.75808757999054</v>
       </c>
       <c r="S13" t="n">
-        <v>96.22237133206653</v>
+        <v>96.2223713320666</v>
       </c>
       <c r="T13" t="n">
-        <v>105.301636831036</v>
+        <v>105.3016368310361</v>
       </c>
       <c r="U13" t="n">
         <v>164.0168467603523</v>
@@ -1588,13 +1588,13 @@
         <v>130.9137990594569</v>
       </c>
       <c r="W13" t="n">
-        <v>164.0700248799332</v>
+        <v>164.0700248799333</v>
       </c>
       <c r="X13" t="n">
         <v>104.117807924827</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.72612186028593</v>
+        <v>96.726121860286</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.9953141854581</v>
+        <v>261.6938579839128</v>
       </c>
       <c r="C14" t="n">
-        <v>244.9625436714604</v>
+        <v>159.9204412270095</v>
       </c>
       <c r="D14" t="n">
         <v>234.5821807471162</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F14" t="n">
-        <v>285.2713114730586</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.3061370030431</v>
       </c>
       <c r="H14" t="n">
         <v>210.7336715177292</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.92019570772395</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360346</v>
+        <v>71.85443390360348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.6396657772425</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.5075649930724</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.8390471236872</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.34957360286265</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>138.5514381909922</v>
+        <v>24.08987156716339</v>
       </c>
       <c r="E15" t="n">
-        <v>34.01088169969164</v>
+        <v>34.01088169969165</v>
       </c>
       <c r="F15" t="n">
-        <v>21.4836800760671</v>
+        <v>21.48368007606712</v>
       </c>
       <c r="G15" t="n">
-        <v>13.71918251221737</v>
+        <v>128.1807491360461</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.71077449716838</v>
+        <v>41.71077449716839</v>
       </c>
       <c r="T15" t="n">
-        <v>75.22543536205843</v>
+        <v>75.22543536205845</v>
       </c>
       <c r="U15" t="n">
-        <v>102.6161069225254</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.06113948320161</v>
+        <v>58.06113948320163</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092372014</v>
+        <v>45.31400092372016</v>
       </c>
       <c r="D16" t="n">
-        <v>26.98301450703717</v>
+        <v>22.85473029491789</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95207216571698</v>
+        <v>24.952072165717</v>
       </c>
       <c r="F16" t="n">
-        <v>24.13646940232231</v>
+        <v>24.13646940232232</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63105716341559</v>
+        <v>45.6310571634156</v>
       </c>
       <c r="H16" t="n">
-        <v>33.38516120288301</v>
+        <v>37.51344541500143</v>
       </c>
       <c r="I16" t="n">
-        <v>24.6394398493068</v>
+        <v>24.63943984930682</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.75808757999057</v>
+        <v>40.75808757999059</v>
       </c>
       <c r="S16" t="n">
-        <v>96.22237133206663</v>
+        <v>96.22237133206664</v>
       </c>
       <c r="T16" t="n">
         <v>105.3016368310361</v>
       </c>
       <c r="U16" t="n">
-        <v>164.0168467603523</v>
+        <v>164.0168467603524</v>
       </c>
       <c r="V16" t="n">
-        <v>130.9137990594569</v>
+        <v>130.913799059457</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0700248799333</v>
+        <v>164.0700248799334</v>
       </c>
       <c r="X16" t="n">
         <v>104.1178079248271</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.72612186028603</v>
+        <v>96.72612186028604</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.4576875370722</v>
+        <v>160.4576875370721</v>
       </c>
       <c r="C17" t="n">
-        <v>143.7263732246192</v>
+        <v>143.7263732246197</v>
       </c>
       <c r="D17" t="n">
         <v>133.3460103002755</v>
       </c>
       <c r="E17" t="n">
-        <v>159.8593133009646</v>
+        <v>159.8593133009645</v>
       </c>
       <c r="F17" t="n">
-        <v>184.035141026218</v>
+        <v>184.0351410262179</v>
       </c>
       <c r="G17" t="n">
-        <v>191.0699665562024</v>
+        <v>191.0699665562023</v>
       </c>
       <c r="H17" t="n">
         <v>109.4975010708885</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.17695501075713</v>
+        <v>28.17695501075704</v>
       </c>
       <c r="V17" t="n">
-        <v>105.2744990681965</v>
+        <v>105.2744990681964</v>
       </c>
       <c r="W17" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X17" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.428349296913</v>
+        <v>163.4283492969129</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1932,16 +1932,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I18" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U18" t="n">
-        <v>138.1545674037635</v>
+        <v>1.37993647568468</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1986,7 +1986,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>91.19071165892854</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>72.15507595161208</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.7611526141917</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.065466384195429</v>
+        <v>4.065466384195344</v>
       </c>
       <c r="U19" t="n">
-        <v>62.78067631351171</v>
+        <v>62.78067631351163</v>
       </c>
       <c r="V19" t="n">
-        <v>29.6776286126163</v>
+        <v>29.67762861261622</v>
       </c>
       <c r="W19" t="n">
-        <v>62.83385443309268</v>
+        <v>62.8338544330926</v>
       </c>
       <c r="X19" t="n">
-        <v>2.881637477986402</v>
+        <v>126.4877141405663</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>160.4576875370722</v>
       </c>
       <c r="C20" t="n">
-        <v>143.7263732246198</v>
+        <v>143.7263732246197</v>
       </c>
       <c r="D20" t="n">
         <v>133.3460103002755</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17695501075713</v>
+        <v>28.1769550107571</v>
       </c>
       <c r="V20" t="n">
-        <v>105.2744990681965</v>
+        <v>105.2744990681971</v>
       </c>
       <c r="W20" t="n">
         <v>127.2713945462317</v>
@@ -2147,7 +2147,7 @@
         <v>147.6028766768465</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.428349296913</v>
+        <v>163.4283492969129</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>100.8764395740189</v>
+        <v>106.7378284180043</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.650008585332245</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2226,7 +2226,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.7611526141917</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.065466384195429</v>
+        <v>199.8266189983873</v>
       </c>
       <c r="U22" t="n">
-        <v>62.78067631351171</v>
+        <v>62.78067631351168</v>
       </c>
       <c r="V22" t="n">
-        <v>29.6776286126163</v>
+        <v>29.67762861261627</v>
       </c>
       <c r="W22" t="n">
-        <v>62.83385443309268</v>
+        <v>62.83385443309265</v>
       </c>
       <c r="X22" t="n">
-        <v>2.881637477986402</v>
+        <v>2.881637477986374</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>160.4576875370722</v>
       </c>
       <c r="C23" t="n">
-        <v>143.7263732246198</v>
+        <v>143.7263732246197</v>
       </c>
       <c r="D23" t="n">
         <v>133.3460103002755</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.17695501075711</v>
+        <v>28.1769550107571</v>
       </c>
       <c r="V23" t="n">
         <v>105.2744990681965</v>
@@ -2384,7 +2384,7 @@
         <v>147.6028766768465</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.428349296913</v>
+        <v>163.4283492969129</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>54.98044609480401</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386589300076</v>
@@ -2460,10 +2460,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>197.5246714160919</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>135.7605396663971</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.00061294779456</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.065466384195429</v>
+        <v>199.8266189983873</v>
       </c>
       <c r="U25" t="n">
-        <v>62.78067631351171</v>
+        <v>62.78067631351168</v>
       </c>
       <c r="V25" t="n">
-        <v>29.6776286126163</v>
+        <v>29.67762861261627</v>
       </c>
       <c r="W25" t="n">
-        <v>62.83385443309268</v>
+        <v>62.83385443309265</v>
       </c>
       <c r="X25" t="n">
-        <v>2.881637477986402</v>
+        <v>2.881637477986374</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>224.8735010598801</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4931381355359</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E26" t="n">
         <v>241.0064411362249</v>
@@ -2567,13 +2567,13 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2170943914627</v>
+        <v>272.2170943914626</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6446289061489</v>
+        <v>190.6446289061488</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83115309614362</v>
+        <v>42.83115309614357</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.76539129202315</v>
+        <v>51.76539129202308</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55062316566215</v>
+        <v>78.5506231656621</v>
       </c>
       <c r="U26" t="n">
         <v>109.3240828460174</v>
@@ -2615,13 +2615,13 @@
         <v>186.4216269034568</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4185223814921</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7500045121069</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.5754771321733</v>
+        <v>244.5754771321732</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2640,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92183908811126</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>17.63851847515566</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S27" t="n">
-        <v>108.7145492171427</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T27" t="n">
-        <v>55.1363927504781</v>
+        <v>55.13639275047804</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386589300076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.97209687162129</v>
+        <v>37.97209687162123</v>
       </c>
       <c r="C28" t="n">
-        <v>25.22495831213982</v>
+        <v>25.22495831213976</v>
       </c>
       <c r="D28" t="n">
-        <v>6.893971895456843</v>
+        <v>6.893971895456787</v>
       </c>
       <c r="E28" t="n">
-        <v>4.863029554136659</v>
+        <v>4.863029554136602</v>
       </c>
       <c r="F28" t="n">
-        <v>4.04742679074198</v>
+        <v>4.047426790741923</v>
       </c>
       <c r="G28" t="n">
-        <v>25.54201455183527</v>
+        <v>25.54201455183521</v>
       </c>
       <c r="H28" t="n">
-        <v>17.42440280342109</v>
+        <v>17.42440280342103</v>
       </c>
       <c r="I28" t="n">
-        <v>4.550397237726481</v>
+        <v>4.550397237726422</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66904496841025</v>
+        <v>20.66904496841019</v>
       </c>
       <c r="S28" t="n">
-        <v>76.1333287204863</v>
+        <v>76.13332872048625</v>
       </c>
       <c r="T28" t="n">
-        <v>85.21259421945577</v>
+        <v>85.21259421945571</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9278041487721</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V28" t="n">
         <v>110.8247564478766</v>
@@ -2776,10 +2776,10 @@
         <v>143.980982268353</v>
       </c>
       <c r="X28" t="n">
-        <v>84.02876531324674</v>
+        <v>84.02876531324668</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.6370792487057</v>
+        <v>76.63707924870565</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2170943914626</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H29" t="n">
-        <v>190.6446289061488</v>
+        <v>190.6446289061489</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83115309614356</v>
+        <v>42.83115309614358</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.76539129202309</v>
+        <v>51.76539129202312</v>
       </c>
       <c r="T29" t="n">
-        <v>78.55062316566209</v>
+        <v>78.55062316566212</v>
       </c>
       <c r="U29" t="n">
         <v>109.3240828460174</v>
@@ -2858,7 +2858,7 @@
         <v>228.7500045121068</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5754771321732</v>
+        <v>244.5754771321733</v>
       </c>
     </row>
     <row r="30">
@@ -2877,16 +2877,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92183908811128</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.621731885588</v>
+        <v>108.7145492171427</v>
       </c>
       <c r="T30" t="n">
-        <v>55.13639275047804</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U30" t="n">
-        <v>210.3572833788128</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2937,7 +2937,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>61.55955679952345</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.97209687162123</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C31" t="n">
-        <v>25.22495831213976</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D31" t="n">
-        <v>6.893971895456787</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E31" t="n">
-        <v>4.863029554136602</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F31" t="n">
-        <v>4.047426790741923</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G31" t="n">
-        <v>25.54201455183521</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H31" t="n">
-        <v>17.42440280342104</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726424</v>
+        <v>4.55039723772645</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.66904496841019</v>
+        <v>20.66904496841022</v>
       </c>
       <c r="S31" t="n">
-        <v>76.13332872048625</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T31" t="n">
-        <v>85.21259421945571</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U31" t="n">
         <v>143.927804148772</v>
@@ -3013,10 +3013,10 @@
         <v>143.980982268353</v>
       </c>
       <c r="X31" t="n">
-        <v>84.02876531324668</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.63707924870565</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6048153723326</v>
+        <v>241.6048153723325</v>
       </c>
       <c r="C32" t="n">
         <v>224.8735010598801</v>
       </c>
       <c r="D32" t="n">
-        <v>214.4931381355359</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E32" t="n">
-        <v>241.006441136225</v>
+        <v>241.0064411362249</v>
       </c>
       <c r="F32" t="n">
         <v>265.1822688614783</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2170943914628</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H32" t="n">
         <v>190.6446289061489</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614365</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202317</v>
+        <v>51.76539129202311</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566219</v>
+        <v>78.55062316566213</v>
       </c>
       <c r="U32" t="n">
-        <v>109.3240828460175</v>
+        <v>109.3240828460174</v>
       </c>
       <c r="V32" t="n">
-        <v>186.4216269034569</v>
+        <v>186.4216269034568</v>
       </c>
       <c r="W32" t="n">
-        <v>208.4185223814921</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X32" t="n">
-        <v>228.7500045121069</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y32" t="n">
         <v>244.5754771321733</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>31.49575279689328</v>
+        <v>66.26970585327354</v>
       </c>
       <c r="T33" t="n">
-        <v>55.13639275047813</v>
+        <v>55.13639275047807</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6386589300076</v>
+        <v>82.52706431094506</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.97209687162132</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C34" t="n">
-        <v>25.22495831213985</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456872</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136688</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790742009</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183529</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342112</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I34" t="n">
-        <v>4.550397237726509</v>
+        <v>4.55039723772645</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841028</v>
+        <v>20.66904496841022</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048633</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T34" t="n">
-        <v>85.2125942194558</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U34" t="n">
-        <v>143.9278041487721</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V34" t="n">
-        <v>110.8247564478767</v>
+        <v>110.8247564478766</v>
       </c>
       <c r="W34" t="n">
         <v>143.980982268353</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324677</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870573</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>193.6664712258006</v>
       </c>
       <c r="H35" t="n">
-        <v>112.0940057404868</v>
+        <v>112.0940057404867</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.77345968035533</v>
+        <v>30.7734596803553</v>
       </c>
       <c r="V35" t="n">
         <v>107.8710037377947</v>
@@ -3332,7 +3332,7 @@
         <v>150.1993813464447</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0248539665112</v>
+        <v>166.0248539665111</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>44.95280458704039</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>76.8123850008196</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>16.95512304945206</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.976441145282969</v>
+        <v>3.976441145282941</v>
       </c>
       <c r="V36" t="n">
-        <v>11.24651325493048</v>
+        <v>11.24651325493045</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.6536091708978</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.661971053793633</v>
+        <v>6.661971053793605</v>
       </c>
       <c r="U37" t="n">
-        <v>65.37718098310991</v>
+        <v>65.37718098310988</v>
       </c>
       <c r="V37" t="n">
-        <v>32.27413328221451</v>
+        <v>32.27413328221448</v>
       </c>
       <c r="W37" t="n">
-        <v>65.43035910269089</v>
+        <v>65.43035910269086</v>
       </c>
       <c r="X37" t="n">
-        <v>5.478142147584606</v>
+        <v>20.6031622428876</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.7786292662007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>193.6664712258006</v>
       </c>
       <c r="H38" t="n">
-        <v>112.0940057404868</v>
+        <v>112.0940057404867</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.77345968035533</v>
+        <v>30.7734596803553</v>
       </c>
       <c r="V38" t="n">
         <v>107.8710037377947</v>
@@ -3569,7 +3569,7 @@
         <v>150.1993813464447</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.0248539665112</v>
+        <v>166.0248539665111</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386589300076</v>
+        <v>20.58796349437898</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>225.9904086520232</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.661971053793632</v>
+        <v>6.661971053793604</v>
       </c>
       <c r="U40" t="n">
         <v>248.1558102493107</v>
       </c>
       <c r="V40" t="n">
-        <v>32.27413328221451</v>
+        <v>32.27413328221448</v>
       </c>
       <c r="W40" t="n">
-        <v>65.43035910269089</v>
+        <v>65.43035910269086</v>
       </c>
       <c r="X40" t="n">
-        <v>5.478142147584606</v>
+        <v>5.478142147584578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>189.8394240803094</v>
       </c>
       <c r="C41" t="n">
-        <v>173.1081097678569</v>
+        <v>173.108109767857</v>
       </c>
       <c r="D41" t="n">
-        <v>162.7277468435127</v>
+        <v>162.7277468435128</v>
       </c>
       <c r="E41" t="n">
-        <v>189.2410498442018</v>
+        <v>189.2410498442019</v>
       </c>
       <c r="F41" t="n">
         <v>213.4168775694552</v>
@@ -3755,7 +3755,7 @@
         <v>220.4517030994396</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8792376141257</v>
+        <v>138.8792376141258</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78523187363898</v>
+        <v>26.78523187363906</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55869155399428</v>
+        <v>57.55869155399436</v>
       </c>
       <c r="V41" t="n">
         <v>134.6562356114337</v>
       </c>
       <c r="W41" t="n">
-        <v>156.6531310894689</v>
+        <v>156.653131089469</v>
       </c>
       <c r="X41" t="n">
-        <v>176.9846132200837</v>
+        <v>176.9846132200838</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8100858401501</v>
+        <v>192.8100858401502</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H42" t="n">
         <v>107.7440529821119</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3.371001458454935</v>
+        <v>3.371001458455021</v>
       </c>
       <c r="U42" t="n">
-        <v>95.88524442620138</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>44.63237843639943</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36793742846313</v>
+        <v>24.36793742846321</v>
       </c>
       <c r="T43" t="n">
-        <v>33.4472029274326</v>
+        <v>33.44720292743268</v>
       </c>
       <c r="U43" t="n">
-        <v>92.16241285674887</v>
+        <v>92.16241285674896</v>
       </c>
       <c r="V43" t="n">
-        <v>59.05936515585347</v>
+        <v>59.05936515585356</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21559097632985</v>
+        <v>92.21559097632993</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26337402122357</v>
+        <v>32.26337402122365</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87168795668254</v>
+        <v>24.87168795668262</v>
       </c>
     </row>
     <row r="44">
@@ -4056,7 +4056,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4068,13 +4068,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>110.1704179156892</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2479873695406</v>
+        <v>59.5804363570096</v>
       </c>
       <c r="U45" t="n">
         <v>224.6386589300076</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1165.446755908738</v>
+        <v>1090.156210499315</v>
       </c>
       <c r="C11" t="n">
-        <v>918.0098431092831</v>
+        <v>842.7192976998595</v>
       </c>
       <c r="D11" t="n">
-        <v>681.0581453849234</v>
+        <v>605.7675999754997</v>
       </c>
       <c r="E11" t="n">
-        <v>681.0581453849234</v>
+        <v>605.7675999754997</v>
       </c>
       <c r="F11" t="n">
-        <v>392.905305513147</v>
+        <v>605.7675999754997</v>
       </c>
       <c r="G11" t="n">
-        <v>97.64658126764903</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="H11" t="n">
-        <v>97.64658126764903</v>
+        <v>97.6465812676491</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64171918777333</v>
+        <v>77.64171918777311</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1898083646871</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8288752482736</v>
+        <v>549.8288752482732</v>
       </c>
       <c r="M11" t="n">
-        <v>881.7569750909474</v>
+        <v>881.7569750909472</v>
       </c>
       <c r="N11" t="n">
         <v>1203.538843616951</v>
@@ -5066,7 +5066,7 @@
         <v>1704.541401376197</v>
       </c>
       <c r="S11" t="n">
-        <v>1631.961165109931</v>
+        <v>1631.96116510993</v>
       </c>
       <c r="T11" t="n">
         <v>1532.325139072312</v>
@@ -5078,13 +5078,13 @@
         <v>1532.325139072312</v>
       </c>
       <c r="W11" t="n">
-        <v>1301.509416857088</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="X11" t="n">
-        <v>1301.509416857088</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="Y11" t="n">
-        <v>1301.509416857088</v>
+        <v>1354.493440786095</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177.8349166891985</v>
+        <v>409.9223964766677</v>
       </c>
       <c r="C12" t="n">
-        <v>128.3369046488766</v>
+        <v>360.4243844363457</v>
       </c>
       <c r="D12" t="n">
-        <v>104.0037010456813</v>
+        <v>336.0911808331504</v>
       </c>
       <c r="E12" t="n">
-        <v>69.64927508639694</v>
+        <v>301.7367548738659</v>
       </c>
       <c r="F12" t="n">
-        <v>47.94858814087471</v>
+        <v>156.7809648904828</v>
       </c>
       <c r="G12" t="n">
-        <v>34.09082802752393</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H12" t="n">
         <v>34.09082802752393</v>
@@ -5118,22 +5118,22 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J12" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="K12" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3939552696687</v>
+        <v>342.6732976662157</v>
       </c>
       <c r="M12" t="n">
-        <v>789.2953365179526</v>
+        <v>755.5746789144996</v>
       </c>
       <c r="N12" t="n">
-        <v>1211.169333358561</v>
+        <v>1177.448675755108</v>
       </c>
       <c r="O12" t="n">
-        <v>1545.349475966412</v>
+        <v>1511.628818362959</v>
       </c>
       <c r="P12" t="n">
         <v>1704.541401376197</v>
@@ -5142,28 +5142,28 @@
         <v>1704.541401376197</v>
       </c>
       <c r="R12" t="n">
-        <v>1704.541401376197</v>
+        <v>1626.542617113319</v>
       </c>
       <c r="S12" t="n">
-        <v>1539.15420288665</v>
+        <v>1532.368835571785</v>
       </c>
       <c r="T12" t="n">
-        <v>1347.551170577673</v>
+        <v>1456.383547327281</v>
       </c>
       <c r="U12" t="n">
-        <v>1120.643434284736</v>
+        <v>1229.475811034344</v>
       </c>
       <c r="V12" t="n">
-        <v>886.3921908103367</v>
+        <v>995.2245675599452</v>
       </c>
       <c r="W12" t="n">
-        <v>633.87769914367</v>
+        <v>742.7100758932785</v>
       </c>
       <c r="X12" t="n">
-        <v>427.3508005492476</v>
+        <v>536.183177298856</v>
       </c>
       <c r="Y12" t="n">
-        <v>344.877467810759</v>
+        <v>453.7098445603673</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.5751708825944</v>
+        <v>261.40518682995</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8034527778266</v>
+        <v>215.6334687251822</v>
       </c>
       <c r="D13" t="n">
-        <v>192.5478825686983</v>
+        <v>188.3778985160538</v>
       </c>
       <c r="E13" t="n">
-        <v>167.3437692699944</v>
+        <v>163.1737852173498</v>
       </c>
       <c r="F13" t="n">
-        <v>142.9634971464366</v>
+        <v>138.7935130937919</v>
       </c>
       <c r="G13" t="n">
-        <v>96.87152021369366</v>
+        <v>92.70153616104875</v>
       </c>
       <c r="H13" t="n">
-        <v>58.97915110763172</v>
+        <v>54.80916705498674</v>
       </c>
       <c r="I13" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J13" t="n">
-        <v>83.45962932283518</v>
+        <v>83.45962932283533</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939541</v>
+        <v>216.7776820939542</v>
       </c>
       <c r="L13" t="n">
         <v>409.3994443472052</v>
       </c>
       <c r="M13" t="n">
-        <v>616.518195644118</v>
+        <v>616.5181956441179</v>
       </c>
       <c r="N13" t="n">
-        <v>826.7257971805968</v>
+        <v>826.7257971805966</v>
       </c>
       <c r="O13" t="n">
-        <v>1014.771769283489</v>
+        <v>1014.771769283488</v>
       </c>
       <c r="P13" t="n">
         <v>1169.890169899395</v>
@@ -5227,22 +5227,22 @@
         <v>1092.927789657317</v>
       </c>
       <c r="T13" t="n">
-        <v>986.5624999289982</v>
+        <v>986.5624999289977</v>
       </c>
       <c r="U13" t="n">
-        <v>820.888917342784</v>
+        <v>820.8889173427833</v>
       </c>
       <c r="V13" t="n">
-        <v>688.6527566766658</v>
+        <v>688.6527566766651</v>
       </c>
       <c r="W13" t="n">
-        <v>522.9254588181475</v>
+        <v>522.9254588181467</v>
       </c>
       <c r="X13" t="n">
-        <v>417.7559558637768</v>
+        <v>417.7559558637759</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.0528024695486</v>
+        <v>320.0528024695476</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1019.494572885468</v>
+        <v>1267.987908785532</v>
       </c>
       <c r="C14" t="n">
-        <v>772.0576600860129</v>
+        <v>1106.45210956633</v>
       </c>
       <c r="D14" t="n">
-        <v>535.105962361653</v>
+        <v>869.5004118419699</v>
       </c>
       <c r="E14" t="n">
-        <v>535.105962361653</v>
+        <v>605.7675999754999</v>
       </c>
       <c r="F14" t="n">
-        <v>246.9531224898767</v>
+        <v>605.7675999754999</v>
       </c>
       <c r="G14" t="n">
-        <v>246.9531224898767</v>
+        <v>310.5088757300018</v>
       </c>
       <c r="H14" t="n">
-        <v>34.09082802752393</v>
+        <v>97.64658126764914</v>
       </c>
       <c r="I14" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J14" t="n">
-        <v>77.64171918777326</v>
+        <v>77.64171918777325</v>
       </c>
       <c r="K14" t="n">
         <v>265.189808364687</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8288752482736</v>
+        <v>549.8288752482734</v>
       </c>
       <c r="M14" t="n">
-        <v>881.7569750909475</v>
+        <v>881.7569750909474</v>
       </c>
       <c r="N14" t="n">
         <v>1203.538843616951</v>
@@ -5306,22 +5306,22 @@
         <v>1631.96116510993</v>
       </c>
       <c r="T14" t="n">
-        <v>1631.96116510993</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="U14" t="n">
-        <v>1631.96116510993</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="V14" t="n">
-        <v>1631.96116510993</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="W14" t="n">
-        <v>1401.145442894706</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="X14" t="n">
-        <v>1149.792870042496</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1149.792870042496</v>
+        <v>1532.325139072312</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>416.7077637915334</v>
+        <v>416.7077637915333</v>
       </c>
       <c r="C15" t="n">
         <v>243.9546487133505</v>
       </c>
       <c r="D15" t="n">
-        <v>104.0037010456816</v>
+        <v>219.6214451101552</v>
       </c>
       <c r="E15" t="n">
-        <v>69.64927508639714</v>
+        <v>185.2670191508707</v>
       </c>
       <c r="F15" t="n">
-        <v>47.94858814087481</v>
+        <v>163.5663322053483</v>
       </c>
       <c r="G15" t="n">
         <v>34.09082802752393</v>
@@ -5358,19 +5358,19 @@
         <v>67.8114856309769</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0510736548812</v>
+        <v>67.8114856309769</v>
       </c>
       <c r="L15" t="n">
-        <v>560.633543293573</v>
+        <v>376.3939552696687</v>
       </c>
       <c r="M15" t="n">
-        <v>973.5349245418569</v>
+        <v>789.2953365179526</v>
       </c>
       <c r="N15" t="n">
-        <v>1118.578773562434</v>
+        <v>1211.169333358561</v>
       </c>
       <c r="O15" t="n">
-        <v>1452.758916170285</v>
+        <v>1545.349475966412</v>
       </c>
       <c r="P15" t="n">
         <v>1704.541401376197</v>
@@ -5388,19 +5388,19 @@
         <v>1586.424017680008</v>
       </c>
       <c r="U15" t="n">
-        <v>1482.771384424932</v>
+        <v>1359.516281387071</v>
       </c>
       <c r="V15" t="n">
-        <v>1248.520140950533</v>
+        <v>1125.265037912672</v>
       </c>
       <c r="W15" t="n">
-        <v>996.0056492838659</v>
+        <v>872.750546246005</v>
       </c>
       <c r="X15" t="n">
-        <v>789.4787506894434</v>
+        <v>666.2236476515825</v>
       </c>
       <c r="Y15" t="n">
-        <v>583.7503149130938</v>
+        <v>460.4952118752329</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>261.4051868299498</v>
+        <v>261.4051868299495</v>
       </c>
       <c r="C16" t="n">
-        <v>215.633468725182</v>
+        <v>215.6334687251817</v>
       </c>
       <c r="D16" t="n">
-        <v>188.3778985160535</v>
+        <v>192.547882568699</v>
       </c>
       <c r="E16" t="n">
-        <v>163.1737852173495</v>
+        <v>167.3437692699949</v>
       </c>
       <c r="F16" t="n">
-        <v>138.7935130937916</v>
+        <v>142.963497146437</v>
       </c>
       <c r="G16" t="n">
-        <v>92.70153616104858</v>
+        <v>96.87152021369398</v>
       </c>
       <c r="H16" t="n">
-        <v>58.97915110763182</v>
+        <v>58.97915110763184</v>
       </c>
       <c r="I16" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283527</v>
+        <v>83.45962932283521</v>
       </c>
       <c r="K16" t="n">
         <v>216.7776820939541</v>
       </c>
       <c r="L16" t="n">
-        <v>409.3994443472051</v>
+        <v>409.399444347205</v>
       </c>
       <c r="M16" t="n">
-        <v>616.5181956441178</v>
+        <v>616.5181956441177</v>
       </c>
       <c r="N16" t="n">
-        <v>826.7257971805966</v>
+        <v>826.7257971805965</v>
       </c>
       <c r="O16" t="n">
-        <v>1014.771769283489</v>
+        <v>1014.771769283488</v>
       </c>
       <c r="P16" t="n">
         <v>1169.890169899395</v>
@@ -5464,22 +5464,22 @@
         <v>1092.927789657317</v>
       </c>
       <c r="T16" t="n">
-        <v>986.5624999289976</v>
+        <v>986.5624999289973</v>
       </c>
       <c r="U16" t="n">
-        <v>820.8889173427832</v>
+        <v>820.8889173427829</v>
       </c>
       <c r="V16" t="n">
-        <v>688.6527566766651</v>
+        <v>688.6527566766647</v>
       </c>
       <c r="W16" t="n">
-        <v>522.9254588181466</v>
+        <v>522.9254588181461</v>
       </c>
       <c r="X16" t="n">
-        <v>417.7559558637757</v>
+        <v>417.7559558637755</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.0528024695474</v>
+        <v>320.0528024695471</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.9335608347651</v>
+        <v>964.9335608347653</v>
       </c>
       <c r="C17" t="n">
         <v>819.7554060624223</v>
       </c>
       <c r="D17" t="n">
-        <v>685.0624663651743</v>
+        <v>685.0624663651745</v>
       </c>
       <c r="E17" t="n">
-        <v>523.588412525816</v>
+        <v>523.5884125258164</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6943306811511</v>
+        <v>337.6943306811518</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6943644627649</v>
+        <v>144.6943644627648</v>
       </c>
       <c r="H17" t="n">
         <v>34.09082802752393</v>
@@ -5513,10 +5513,10 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777333</v>
       </c>
       <c r="K17" t="n">
-        <v>265.1898083646871</v>
+        <v>265.1898083646872</v>
       </c>
       <c r="L17" t="n">
         <v>549.8288752482736</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>871.6986995560985</v>
+        <v>757.9870186447279</v>
       </c>
       <c r="C18" t="n">
-        <v>698.9455844779156</v>
+        <v>585.233903566545</v>
       </c>
       <c r="D18" t="n">
-        <v>551.3572778368596</v>
+        <v>437.6455969254889</v>
       </c>
       <c r="E18" t="n">
-        <v>393.7477488397143</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="F18" t="n">
-        <v>248.7919588563312</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6790957051195</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="I18" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="J18" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="K18" t="n">
-        <v>252.0510736548812</v>
+        <v>218.3304160514283</v>
       </c>
       <c r="L18" t="n">
-        <v>560.633543293573</v>
+        <v>218.3304160514283</v>
       </c>
       <c r="M18" t="n">
-        <v>973.5349245418569</v>
+        <v>631.2317972997122</v>
       </c>
       <c r="N18" t="n">
         <v>1001.829782463884</v>
@@ -5622,22 +5622,22 @@
         <v>1704.541401376197</v>
       </c>
       <c r="T18" t="n">
-        <v>1704.541401376197</v>
+        <v>1505.301010093832</v>
       </c>
       <c r="U18" t="n">
-        <v>1564.991333291587</v>
+        <v>1503.907134865868</v>
       </c>
       <c r="V18" t="n">
-        <v>1330.740089817188</v>
+        <v>1269.655891391469</v>
       </c>
       <c r="W18" t="n">
-        <v>1078.225598150521</v>
+        <v>1017.141399724802</v>
       </c>
       <c r="X18" t="n">
-        <v>871.6986995560985</v>
+        <v>925.0295697662883</v>
       </c>
       <c r="Y18" t="n">
-        <v>871.6986995560985</v>
+        <v>925.0295697662883</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="C19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="D19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="E19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="F19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="G19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="H19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="I19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="J19" t="n">
         <v>34.09082802752393</v>
       </c>
       <c r="K19" t="n">
-        <v>46.60655431123542</v>
+        <v>46.60655431123541</v>
       </c>
       <c r="L19" t="n">
         <v>118.425990077079</v>
@@ -5698,25 +5698,25 @@
         <v>395.7074096796393</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9688716855063</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="T19" t="n">
-        <v>193.8623399842988</v>
+        <v>391.6008779784319</v>
       </c>
       <c r="U19" t="n">
-        <v>130.447515425196</v>
+        <v>328.1860534193293</v>
       </c>
       <c r="V19" t="n">
-        <v>100.4701127861897</v>
+        <v>298.208650780323</v>
       </c>
       <c r="W19" t="n">
-        <v>37.00157295478292</v>
+        <v>234.7401109489163</v>
       </c>
       <c r="X19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.09082802752393</v>
+        <v>106.9747431301624</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347656</v>
+        <v>964.9335608347652</v>
       </c>
       <c r="C20" t="n">
-        <v>819.7554060624224</v>
+        <v>819.755406062422</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0624663651744</v>
+        <v>685.062466365174</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5884125258161</v>
+        <v>523.5884125258158</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6943306811514</v>
+        <v>337.6943306811511</v>
       </c>
       <c r="G20" t="n">
         <v>144.6943644627649</v>
@@ -5750,19 +5750,19 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777333</v>
       </c>
       <c r="K20" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646872</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8288752482733</v>
+        <v>549.8288752482736</v>
       </c>
       <c r="M20" t="n">
-        <v>881.7569750909473</v>
+        <v>881.7569750909474</v>
       </c>
       <c r="N20" t="n">
-        <v>1203.53884361695</v>
+        <v>1203.538843616951</v>
       </c>
       <c r="O20" t="n">
         <v>1461.259986043749</v>
@@ -5783,7 +5783,7 @@
         <v>1704.541401376197</v>
       </c>
       <c r="U20" t="n">
-        <v>1676.07983065826</v>
+        <v>1676.079830658261</v>
       </c>
       <c r="V20" t="n">
         <v>1569.741952811597</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>135.986221536634</v>
+        <v>764.8135570283059</v>
       </c>
       <c r="C21" t="n">
-        <v>135.986221536634</v>
+        <v>592.060441950123</v>
       </c>
       <c r="D21" t="n">
-        <v>135.986221536634</v>
+        <v>444.4721353090669</v>
       </c>
       <c r="E21" t="n">
-        <v>135.986221536634</v>
+        <v>286.8626063119216</v>
       </c>
       <c r="F21" t="n">
-        <v>135.986221536634</v>
+        <v>141.9068163285384</v>
       </c>
       <c r="G21" t="n">
         <v>34.09082802752393</v>
@@ -5829,16 +5829,16 @@
         <v>34.09082802752393</v>
       </c>
       <c r="J21" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="K21" t="n">
-        <v>67.8114856309769</v>
+        <v>34.09082802752393</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3939552696687</v>
+        <v>283.8033954735414</v>
       </c>
       <c r="M21" t="n">
-        <v>789.2953365179525</v>
+        <v>696.7047767218253</v>
       </c>
       <c r="N21" t="n">
         <v>1118.578773562434</v>
@@ -5856,25 +5856,25 @@
         <v>1626.542617113319</v>
       </c>
       <c r="S21" t="n">
-        <v>1461.155418623773</v>
+        <v>1626.542617113319</v>
       </c>
       <c r="T21" t="n">
-        <v>1261.915027341409</v>
+        <v>1626.542617113319</v>
       </c>
       <c r="U21" t="n">
-        <v>1035.007291048472</v>
+        <v>1399.634880820382</v>
       </c>
       <c r="V21" t="n">
-        <v>800.7560475740727</v>
+        <v>1390.897498410956</v>
       </c>
       <c r="W21" t="n">
-        <v>548.241555907406</v>
+        <v>1138.383006744289</v>
       </c>
       <c r="X21" t="n">
-        <v>341.7146573129835</v>
+        <v>931.8561081498664</v>
       </c>
       <c r="Y21" t="n">
-        <v>135.986221536634</v>
+        <v>931.8561081498664</v>
       </c>
     </row>
     <row r="22">
@@ -5917,7 +5917,7 @@
         <v>118.425990077079</v>
       </c>
       <c r="M22" t="n">
-        <v>204.7424148865843</v>
+        <v>204.7424148865844</v>
       </c>
       <c r="N22" t="n">
         <v>294.1476899356558</v>
@@ -5935,19 +5935,19 @@
         <v>395.7074096796393</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9688716855063</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="T22" t="n">
-        <v>193.8623399842988</v>
+        <v>193.8623399842987</v>
       </c>
       <c r="U22" t="n">
-        <v>130.447515425196</v>
+        <v>130.4475154251959</v>
       </c>
       <c r="V22" t="n">
-        <v>100.4701127861897</v>
+        <v>100.4701127861896</v>
       </c>
       <c r="W22" t="n">
-        <v>37.00157295478292</v>
+        <v>37.00157295478289</v>
       </c>
       <c r="X22" t="n">
         <v>34.09082802752393</v>
@@ -5966,37 +5966,37 @@
         <v>964.9335608347646</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7554060624215</v>
+        <v>819.7554060624213</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0624663651735</v>
+        <v>685.0624663651733</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5884125258152</v>
+        <v>523.5884125258151</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811505</v>
+        <v>337.6943306811504</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6943644627649</v>
+        <v>144.6943644627648</v>
       </c>
       <c r="H23" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I23" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777311</v>
+        <v>77.64171918777323</v>
       </c>
       <c r="K23" t="n">
-        <v>265.1898083646867</v>
+        <v>265.1898083646869</v>
       </c>
       <c r="L23" t="n">
-        <v>549.8288752482731</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M23" t="n">
-        <v>881.756975090947</v>
+        <v>881.7569750909473</v>
       </c>
       <c r="N23" t="n">
         <v>1203.53884361695</v>
@@ -6008,25 +6008,25 @@
         <v>1644.280225347656</v>
       </c>
       <c r="Q23" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R23" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S23" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T23" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.07983065826</v>
+        <v>1676.079830658259</v>
       </c>
       <c r="V23" t="n">
-        <v>1569.741952811597</v>
+        <v>1569.741952811596</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X23" t="n">
         <v>1292.091173798386</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>578.6125955714216</v>
+        <v>181.67913466858</v>
       </c>
       <c r="C24" t="n">
-        <v>578.6125955714216</v>
+        <v>181.67913466858</v>
       </c>
       <c r="D24" t="n">
-        <v>523.0767914352559</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E24" t="n">
-        <v>365.4672624381107</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F24" t="n">
-        <v>220.5114724547275</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G24" t="n">
-        <v>220.5114724547275</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I24" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J24" t="n">
-        <v>67.8114856309769</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="K24" t="n">
-        <v>252.0510736548812</v>
+        <v>67.81148563097688</v>
       </c>
       <c r="L24" t="n">
-        <v>560.633543293573</v>
+        <v>376.3939552696686</v>
       </c>
       <c r="M24" t="n">
-        <v>973.5349245418568</v>
+        <v>789.2953365179525</v>
       </c>
       <c r="N24" t="n">
-        <v>1118.578773562434</v>
+        <v>1118.578773562433</v>
       </c>
       <c r="O24" t="n">
-        <v>1452.758916170285</v>
+        <v>1452.758916170284</v>
       </c>
       <c r="P24" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="Q24" t="n">
-        <v>1704.541401376197</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="R24" t="n">
-        <v>1704.541401376197</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S24" t="n">
-        <v>1704.541401376197</v>
+        <v>1461.155418623772</v>
       </c>
       <c r="T24" t="n">
-        <v>1704.541401376197</v>
+        <v>1261.915027341408</v>
       </c>
       <c r="U24" t="n">
-        <v>1477.63366508326</v>
+        <v>1035.007291048471</v>
       </c>
       <c r="V24" t="n">
-        <v>1243.38242160886</v>
+        <v>800.7560475740718</v>
       </c>
       <c r="W24" t="n">
-        <v>990.8679299421937</v>
+        <v>548.2415559074051</v>
       </c>
       <c r="X24" t="n">
-        <v>784.3410313477711</v>
+        <v>348.7216857901405</v>
       </c>
       <c r="Y24" t="n">
-        <v>578.6125955714216</v>
+        <v>348.7216857901405</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="C25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="D25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H25" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I25" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J25" t="n">
-        <v>34.09082802752393</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K25" t="n">
-        <v>46.60655431123541</v>
+        <v>46.60655431123539</v>
       </c>
       <c r="L25" t="n">
         <v>118.425990077079</v>
@@ -6166,31 +6166,31 @@
         <v>395.7074096796393</v>
       </c>
       <c r="Q25" t="n">
-        <v>335.1007299343923</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="R25" t="n">
-        <v>335.1007299343923</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="S25" t="n">
-        <v>335.1007299343923</v>
+        <v>395.7074096796393</v>
       </c>
       <c r="T25" t="n">
-        <v>330.9941982331848</v>
+        <v>193.8623399842986</v>
       </c>
       <c r="U25" t="n">
-        <v>267.579373674082</v>
+        <v>130.4475154251959</v>
       </c>
       <c r="V25" t="n">
-        <v>237.6019710350757</v>
+        <v>100.4701127861896</v>
       </c>
       <c r="W25" t="n">
-        <v>174.1334312036689</v>
+        <v>37.00157295478287</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.2226862764099</v>
+        <v>34.09082802752391</v>
       </c>
     </row>
     <row r="26">
@@ -6209,64 +6209,64 @@
         <v>1079.836250306609</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3954006740587</v>
+        <v>836.3954006740585</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5345230362018</v>
+        <v>568.5345230362016</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5677610246232</v>
+        <v>293.5677610246231</v>
       </c>
       <c r="H26" t="n">
-        <v>100.99742879619</v>
+        <v>100.9974287961899</v>
       </c>
       <c r="I26" t="n">
         <v>57.73363778998431</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9750076231055</v>
+        <v>241.9750076231056</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2135754728911</v>
+        <v>570.2135754728913</v>
       </c>
       <c r="L26" t="n">
-        <v>995.5431210293493</v>
+        <v>995.5431210293498</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.161699544895</v>
+        <v>1468.161699544896</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.63404674377</v>
+        <v>1930.634046743771</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.045667843441</v>
+        <v>2329.045667843442</v>
       </c>
       <c r="P26" t="n">
-        <v>2652.756385820221</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q26" t="n">
-        <v>2853.708040521633</v>
+        <v>2853.708040521632</v>
       </c>
       <c r="R26" t="n">
-        <v>2886.681889499216</v>
+        <v>2886.681889499215</v>
       </c>
       <c r="S26" t="n">
         <v>2834.393615466869</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.04955166317</v>
+        <v>2755.049551663169</v>
       </c>
       <c r="U26" t="n">
         <v>2644.621185152041</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.316511512186</v>
+        <v>2456.316511512185</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.792751530881</v>
+        <v>2245.79275153088</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.732140912591</v>
+        <v>2014.73214091259</v>
       </c>
       <c r="Y26" t="n">
         <v>1767.686204415446</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.6403784897517</v>
+        <v>547.0670717142399</v>
       </c>
       <c r="C27" t="n">
-        <v>507.8872634115689</v>
+        <v>374.3139566360571</v>
       </c>
       <c r="D27" t="n">
-        <v>360.2989567705127</v>
+        <v>226.7256499950009</v>
       </c>
       <c r="E27" t="n">
-        <v>202.6894277733675</v>
+        <v>212.663186269636</v>
       </c>
       <c r="F27" t="n">
-        <v>57.73363778998431</v>
+        <v>194.846500941196</v>
       </c>
       <c r="G27" t="n">
         <v>57.73363778998431</v>
@@ -6327,28 +6327,28 @@
         <v>2139.117737403583</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.117737403583</v>
+        <v>2061.118953140705</v>
       </c>
       <c r="S27" t="n">
-        <v>2029.305061426671</v>
+        <v>1895.731754651159</v>
       </c>
       <c r="T27" t="n">
-        <v>1973.611735416087</v>
+        <v>1840.038428640575</v>
       </c>
       <c r="U27" t="n">
-        <v>1746.70399912315</v>
+        <v>1613.130692347638</v>
       </c>
       <c r="V27" t="n">
-        <v>1512.452755648751</v>
+        <v>1378.879448873239</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.938263982084</v>
+        <v>1126.364957206572</v>
       </c>
       <c r="X27" t="n">
-        <v>1053.411365387662</v>
+        <v>919.8380586121499</v>
       </c>
       <c r="Y27" t="n">
-        <v>847.6829296113121</v>
+        <v>714.1096228358003</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.1742450076188</v>
+        <v>147.1742450076184</v>
       </c>
       <c r="C28" t="n">
-        <v>121.6944891367705</v>
+        <v>121.6944891367701</v>
       </c>
       <c r="D28" t="n">
-        <v>114.7308811615616</v>
+        <v>114.7308811615613</v>
       </c>
       <c r="E28" t="n">
-        <v>109.8187300967771</v>
+        <v>109.8187300967768</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7304202071387</v>
+        <v>105.7304202071385</v>
       </c>
       <c r="G28" t="n">
-        <v>79.93040550831519</v>
+        <v>79.93040550831506</v>
       </c>
       <c r="H28" t="n">
-        <v>62.32999863617268</v>
+        <v>62.32999863617261</v>
       </c>
       <c r="I28" t="n">
         <v>57.73363778998431</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9905912707602</v>
+        <v>126.9905912707603</v>
       </c>
       <c r="K28" t="n">
-        <v>139.5063175544717</v>
+        <v>222.6616030721749</v>
       </c>
       <c r="L28" t="n">
-        <v>211.3257533203153</v>
+        <v>435.1715175108905</v>
       </c>
       <c r="M28" t="n">
-        <v>438.3326568026926</v>
+        <v>662.1784209932678</v>
       </c>
       <c r="N28" t="n">
-        <v>527.737931851764</v>
+        <v>751.5836960423393</v>
       </c>
       <c r="O28" t="n">
-        <v>735.6720561401203</v>
+        <v>818.8273416578237</v>
       </c>
       <c r="P28" t="n">
-        <v>910.6786089414913</v>
+        <v>853.1434157863229</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.4332876408793</v>
+        <v>934.4332876408782</v>
       </c>
       <c r="R28" t="n">
-        <v>913.5554644404649</v>
+        <v>913.5554644404639</v>
       </c>
       <c r="S28" t="n">
-        <v>836.6531121975494</v>
+        <v>836.6531121975485</v>
       </c>
       <c r="T28" t="n">
-        <v>750.5797847031496</v>
+        <v>750.5797847031488</v>
       </c>
       <c r="U28" t="n">
-        <v>605.1981643508545</v>
+        <v>605.1981643508539</v>
       </c>
       <c r="V28" t="n">
-        <v>493.2539659186559</v>
+        <v>493.2539659186553</v>
       </c>
       <c r="W28" t="n">
-        <v>347.8186302940568</v>
+        <v>347.8186302940563</v>
       </c>
       <c r="X28" t="n">
-        <v>262.9410895736056</v>
+        <v>262.9410895736052</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.5298984132968</v>
+        <v>185.5298984132964</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.640936362585</v>
+        <v>1523.640936362586</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.49598579705</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.83625030661</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3954006740585</v>
+        <v>836.3954006740594</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5345230362016</v>
+        <v>568.5345230362025</v>
       </c>
       <c r="G29" t="n">
-        <v>293.5677610246231</v>
+        <v>293.5677610246239</v>
       </c>
       <c r="H29" t="n">
         <v>100.9974287961899</v>
       </c>
       <c r="I29" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231053</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K29" t="n">
-        <v>570.213575472891</v>
+        <v>570.2135754728913</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293492</v>
+        <v>995.5431210293495</v>
       </c>
       <c r="M29" t="n">
         <v>1468.161699544895</v>
@@ -6488,25 +6488,25 @@
         <v>2886.681889499215</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.393615466868</v>
+        <v>2834.39361546687</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.049551663169</v>
+        <v>2755.04955166317</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152042</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512186</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530881</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912592</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.686204415446</v>
+        <v>1767.686204415447</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>926.5856183905714</v>
+        <v>537.0933132179714</v>
       </c>
       <c r="C30" t="n">
-        <v>753.8325033123886</v>
+        <v>364.3401981397885</v>
       </c>
       <c r="D30" t="n">
-        <v>606.2441966713325</v>
+        <v>216.7518914987324</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6346676741872</v>
+        <v>202.6894277733674</v>
       </c>
       <c r="F30" t="n">
-        <v>303.678877690804</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="G30" t="n">
-        <v>166.5660145395923</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="H30" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="I30" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J30" t="n">
         <v>91.45429539343726</v>
@@ -6549,43 +6549,43 @@
         <v>584.2763530560333</v>
       </c>
       <c r="M30" t="n">
-        <v>997.177734304317</v>
+        <v>997.1777343043171</v>
       </c>
       <c r="N30" t="n">
         <v>1436.40611849127</v>
       </c>
       <c r="O30" t="n">
-        <v>1770.58626109912</v>
+        <v>1770.586261099121</v>
       </c>
       <c r="P30" t="n">
         <v>2022.368746305032</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.117737403582</v>
+        <v>2139.117737403583</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.117737403582</v>
+        <v>2139.117737403583</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.277604185817</v>
+        <v>2029.305061426671</v>
       </c>
       <c r="T30" t="n">
-        <v>2061.584278175233</v>
+        <v>1830.064670144307</v>
       </c>
       <c r="U30" t="n">
-        <v>1849.10217375219</v>
+        <v>1603.15693385137</v>
       </c>
       <c r="V30" t="n">
-        <v>1614.850930277791</v>
+        <v>1368.905690376971</v>
       </c>
       <c r="W30" t="n">
-        <v>1362.336438611124</v>
+        <v>1116.391198710304</v>
       </c>
       <c r="X30" t="n">
-        <v>1155.809540016701</v>
+        <v>909.8643001158814</v>
       </c>
       <c r="Y30" t="n">
-        <v>1093.628169512132</v>
+        <v>704.1358643395318</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.1742450076184</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6944891367702</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D31" t="n">
-        <v>114.7308811615613</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E31" t="n">
-        <v>109.8187300967768</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7304202071385</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G31" t="n">
-        <v>79.93040550831508</v>
+        <v>79.93040550831512</v>
       </c>
       <c r="H31" t="n">
-        <v>62.32999863617261</v>
+        <v>62.32999863617263</v>
       </c>
       <c r="I31" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9905912707603</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="K31" t="n">
-        <v>280.1967962273437</v>
+        <v>70.24936407369579</v>
       </c>
       <c r="L31" t="n">
-        <v>352.0162319931873</v>
+        <v>142.0687998395394</v>
       </c>
       <c r="M31" t="n">
-        <v>579.0231354755646</v>
+        <v>321.3968568292081</v>
       </c>
       <c r="N31" t="n">
-        <v>751.5836960423393</v>
+        <v>551.4926105511514</v>
       </c>
       <c r="O31" t="n">
-        <v>818.8273416578237</v>
+        <v>759.4267348395077</v>
       </c>
       <c r="P31" t="n">
-        <v>853.1434157863229</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.4332876408782</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R31" t="n">
-        <v>913.5554644404639</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S31" t="n">
-        <v>836.6531121975485</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T31" t="n">
-        <v>750.5797847031488</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U31" t="n">
-        <v>605.1981643508539</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V31" t="n">
-        <v>493.2539659186553</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W31" t="n">
-        <v>347.8186302940563</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X31" t="n">
-        <v>262.9410895736052</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.5298984132964</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>1523.640936362584</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.495985797048</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740585</v>
+        <v>836.3954006740578</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5345230362016</v>
+        <v>568.5345230362009</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5677610246232</v>
+        <v>293.5677610246231</v>
       </c>
       <c r="H32" t="n">
         <v>100.99742879619</v>
       </c>
       <c r="I32" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J32" t="n">
         <v>241.9750076231055</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2135754728911</v>
+        <v>570.2135754728912</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293493</v>
+        <v>995.5431210293495</v>
       </c>
       <c r="M32" t="n">
         <v>1468.161699544895</v>
@@ -6716,7 +6716,7 @@
         <v>2329.045667843441</v>
       </c>
       <c r="P32" t="n">
-        <v>2652.756385820219</v>
+        <v>2652.75638582022</v>
       </c>
       <c r="Q32" t="n">
         <v>2853.708040521632</v>
@@ -6725,13 +6725,13 @@
         <v>2886.681889499215</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.393615466869</v>
+        <v>2834.393615466868</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.04955166317</v>
+        <v>2755.049551663169</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.62118515204</v>
       </c>
       <c r="V32" t="n">
         <v>2456.316511512185</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.6403784897517</v>
+        <v>867.0610229169554</v>
       </c>
       <c r="C33" t="n">
-        <v>507.8872634115689</v>
+        <v>694.3079078387725</v>
       </c>
       <c r="D33" t="n">
-        <v>360.2989567705127</v>
+        <v>546.7196011977163</v>
       </c>
       <c r="E33" t="n">
-        <v>202.6894277733674</v>
+        <v>389.110072200571</v>
       </c>
       <c r="F33" t="n">
-        <v>57.73363778998431</v>
+        <v>244.1542822171879</v>
       </c>
       <c r="G33" t="n">
-        <v>57.73363778998431</v>
+        <v>244.1542822171879</v>
       </c>
       <c r="H33" t="n">
-        <v>57.73363778998431</v>
+        <v>135.3219054675799</v>
       </c>
       <c r="I33" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J33" t="n">
         <v>91.45429539343726</v>
@@ -6786,43 +6786,43 @@
         <v>584.2763530560333</v>
       </c>
       <c r="M33" t="n">
-        <v>997.177734304317</v>
+        <v>997.1777343043171</v>
       </c>
       <c r="N33" t="n">
         <v>1436.40611849127</v>
       </c>
       <c r="O33" t="n">
-        <v>1770.58626109912</v>
+        <v>1770.586261099121</v>
       </c>
       <c r="P33" t="n">
         <v>2022.368746305032</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.117737403582</v>
+        <v>2139.117737403583</v>
       </c>
       <c r="R33" t="n">
-        <v>2061.118953140705</v>
+        <v>2139.117737403583</v>
       </c>
       <c r="S33" t="n">
-        <v>2029.305061426671</v>
+        <v>2072.178640582094</v>
       </c>
       <c r="T33" t="n">
-        <v>1973.611735416087</v>
+        <v>2016.48531457151</v>
       </c>
       <c r="U33" t="n">
-        <v>1746.70399912315</v>
+        <v>1933.124643550354</v>
       </c>
       <c r="V33" t="n">
-        <v>1512.452755648751</v>
+        <v>1698.873400075955</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.938263982084</v>
+        <v>1446.358908409288</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.411365387662</v>
+        <v>1239.832009814865</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.6829296113121</v>
+        <v>1034.103574038516</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.174245007619</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C34" t="n">
-        <v>121.6944891367707</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7308811615617</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967772</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071388</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G34" t="n">
-        <v>79.93040550831525</v>
+        <v>79.93040550831512</v>
       </c>
       <c r="H34" t="n">
-        <v>62.3299986361727</v>
+        <v>62.32999863617263</v>
       </c>
       <c r="I34" t="n">
-        <v>57.73363778998431</v>
+        <v>57.7336377899843</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9905912707602</v>
+        <v>69.4553981155924</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1967962273436</v>
+        <v>222.6616030721758</v>
       </c>
       <c r="L34" t="n">
-        <v>435.1715175108923</v>
+        <v>294.4810388380194</v>
       </c>
       <c r="M34" t="n">
-        <v>521.4879423203976</v>
+        <v>380.7974636475248</v>
       </c>
       <c r="N34" t="n">
-        <v>751.5836960423409</v>
+        <v>610.8932173694681</v>
       </c>
       <c r="O34" t="n">
-        <v>818.8273416578253</v>
+        <v>818.8273416578244</v>
       </c>
       <c r="P34" t="n">
-        <v>853.1434157863245</v>
+        <v>853.1434157863235</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408797</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404652</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S34" t="n">
-        <v>836.6531121975497</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031499</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508549</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V34" t="n">
-        <v>493.2539659186563</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W34" t="n">
-        <v>347.8186302940572</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X34" t="n">
-        <v>262.941089573606</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132971</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122544834366</v>
+        <v>981.3122544834359</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113677216004</v>
+        <v>833.5113677215996</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1956960348593</v>
+        <v>696.1956960348585</v>
       </c>
       <c r="E35" t="n">
-        <v>532.098910206008</v>
+        <v>532.0989102060072</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5820963718502</v>
+        <v>343.5820963718494</v>
       </c>
       <c r="G35" t="n">
         <v>147.9593981639706</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I35" t="n">
-        <v>66.205913613154</v>
+        <v>39.6885340582508</v>
       </c>
       <c r="J35" t="n">
-        <v>109.7568047734033</v>
+        <v>83.23942521850012</v>
       </c>
       <c r="K35" t="n">
-        <v>297.304893950317</v>
+        <v>270.7875143954138</v>
       </c>
       <c r="L35" t="n">
-        <v>581.9439608339035</v>
+        <v>555.4265812790003</v>
       </c>
       <c r="M35" t="n">
-        <v>913.8720606765773</v>
+        <v>887.3546811216743</v>
       </c>
       <c r="N35" t="n">
-        <v>1235.65392920258</v>
+        <v>1209.136549647677</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.375071629379</v>
+        <v>1466.857692074476</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.395310933286</v>
+        <v>1649.877931378383</v>
       </c>
       <c r="Q35" t="n">
-        <v>1736.656486961826</v>
+        <v>1710.139107406923</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.656486961826</v>
+        <v>1710.139107406923</v>
       </c>
       <c r="S35" t="n">
         <v>1736.656486961826</v>
@@ -6968,19 +6968,19 @@
         <v>1736.656486961826</v>
       </c>
       <c r="U35" t="n">
-        <v>1705.572184254397</v>
+        <v>1705.572184254396</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.611574418241</v>
+        <v>1596.61157441824</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.431878240635</v>
+        <v>1465.431878240634</v>
       </c>
       <c r="X35" t="n">
         <v>1313.715331426044</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.013458732599</v>
+        <v>1146.013458732598</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>889.4673881864502</v>
+        <v>872.3410012678112</v>
       </c>
       <c r="C36" t="n">
-        <v>716.7142731082674</v>
+        <v>699.5878861896283</v>
       </c>
       <c r="D36" t="n">
-        <v>569.1259664672114</v>
+        <v>551.9995795485722</v>
       </c>
       <c r="E36" t="n">
-        <v>411.5164374700661</v>
+        <v>394.390050551427</v>
       </c>
       <c r="F36" t="n">
-        <v>266.5606474866829</v>
+        <v>249.4342605680438</v>
       </c>
       <c r="G36" t="n">
-        <v>221.1537741664401</v>
+        <v>112.3213974168321</v>
       </c>
       <c r="H36" t="n">
         <v>112.3213974168321</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J36" t="n">
-        <v>68.45378734268949</v>
+        <v>68.45378734268948</v>
       </c>
       <c r="K36" t="n">
         <v>252.6933753665938</v>
       </c>
       <c r="L36" t="n">
-        <v>561.2758450052856</v>
+        <v>561.2758450052855</v>
       </c>
       <c r="M36" t="n">
-        <v>604.1223875264616</v>
+        <v>974.1772262535694</v>
       </c>
       <c r="N36" t="n">
-        <v>1033.944868049514</v>
+        <v>1403.999706776621</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.125010657364</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.907495863276</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="Q36" t="n">
         <v>1736.656486961826</v>
       </c>
       <c r="R36" t="n">
-        <v>1736.656486961826</v>
+        <v>1719.530100043188</v>
       </c>
       <c r="S36" t="n">
-        <v>1736.656486961826</v>
+        <v>1719.530100043188</v>
       </c>
       <c r="T36" t="n">
-        <v>1736.656486961826</v>
+        <v>1719.530100043188</v>
       </c>
       <c r="U36" t="n">
-        <v>1732.639879744369</v>
+        <v>1715.51349282573</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.279765345449</v>
+        <v>1704.15337842681</v>
       </c>
       <c r="W36" t="n">
-        <v>1468.765273678782</v>
+        <v>1451.638886760144</v>
       </c>
       <c r="X36" t="n">
-        <v>1262.23837508436</v>
+        <v>1245.111988165721</v>
       </c>
       <c r="Y36" t="n">
-        <v>1056.509939308011</v>
+        <v>1039.383552389372</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.73312973923653</v>
+        <v>204.0802097098403</v>
       </c>
       <c r="C37" t="n">
-        <v>34.73312973923653</v>
+        <v>204.0802097098403</v>
       </c>
       <c r="D37" t="n">
-        <v>34.73312973923653</v>
+        <v>204.0802097098403</v>
       </c>
       <c r="E37" t="n">
-        <v>34.73312973923653</v>
+        <v>204.0802097098403</v>
       </c>
       <c r="F37" t="n">
-        <v>34.73312973923653</v>
+        <v>204.0802097098403</v>
       </c>
       <c r="G37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="K37" t="n">
-        <v>47.24885602294801</v>
+        <v>47.248856022948</v>
       </c>
       <c r="L37" t="n">
         <v>119.0682917887916</v>
@@ -7108,25 +7108,25 @@
         <v>294.7899916473684</v>
       </c>
       <c r="O37" t="n">
-        <v>362.0336372628528</v>
+        <v>362.0336372628527</v>
       </c>
       <c r="P37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913519</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913519</v>
       </c>
       <c r="R37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913519</v>
       </c>
       <c r="S37" t="n">
-        <v>396.349711391352</v>
+        <v>396.3497113913519</v>
       </c>
       <c r="T37" t="n">
-        <v>389.6204477006514</v>
+        <v>389.6204477006513</v>
       </c>
       <c r="U37" t="n">
-        <v>323.5828911520555</v>
+        <v>323.5828911520554</v>
       </c>
       <c r="V37" t="n">
         <v>290.982756523556</v>
@@ -7135,10 +7135,10 @@
         <v>224.8914847026561</v>
       </c>
       <c r="X37" t="n">
-        <v>219.3580077859039</v>
+        <v>204.0802097098403</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.73312973923653</v>
+        <v>204.0802097098403</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.3122544834364</v>
+        <v>981.3122544834362</v>
       </c>
       <c r="C38" t="n">
-        <v>833.5113677216</v>
+        <v>833.5113677215999</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1956960348589</v>
+        <v>696.1956960348588</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0989102060075</v>
+        <v>532.0989102060074</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718497</v>
+        <v>343.5820963718496</v>
       </c>
       <c r="G38" t="n">
         <v>147.9593981639706</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J38" t="n">
-        <v>78.28402089948588</v>
+        <v>78.28402089948585</v>
       </c>
       <c r="K38" t="n">
         <v>265.8321100763997</v>
@@ -7187,13 +7187,13 @@
         <v>1204.181145328663</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.902287755462</v>
+        <v>1493.375071629379</v>
       </c>
       <c r="P38" t="n">
-        <v>1644.922527059369</v>
+        <v>1676.395310933286</v>
       </c>
       <c r="Q38" t="n">
-        <v>1705.183703087909</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="R38" t="n">
         <v>1736.656486961826</v>
@@ -7205,7 +7205,7 @@
         <v>1736.656486961826</v>
       </c>
       <c r="U38" t="n">
-        <v>1705.572184254397</v>
+        <v>1705.572184254396</v>
       </c>
       <c r="V38" t="n">
         <v>1596.61157441824</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>192.3426587363818</v>
+        <v>649.7969436068324</v>
       </c>
       <c r="C39" t="n">
-        <v>192.3426587363818</v>
+        <v>477.0438285286496</v>
       </c>
       <c r="D39" t="n">
-        <v>192.3426587363818</v>
+        <v>329.4555218875935</v>
       </c>
       <c r="E39" t="n">
-        <v>34.73312973923653</v>
+        <v>171.8459928904482</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73312973923653</v>
+        <v>171.8459928904482</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J39" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="K39" t="n">
-        <v>34.73312973923653</v>
+        <v>218.9727177631408</v>
       </c>
       <c r="L39" t="n">
-        <v>343.3155993779283</v>
+        <v>527.5551874018327</v>
       </c>
       <c r="M39" t="n">
-        <v>756.2169806262123</v>
+        <v>940.4565686501165</v>
       </c>
       <c r="N39" t="n">
-        <v>1186.039461149264</v>
+        <v>1370.279049173168</v>
       </c>
       <c r="O39" t="n">
-        <v>1520.219603757115</v>
+        <v>1704.459191781019</v>
       </c>
       <c r="P39" t="n">
         <v>1736.656486961826</v>
@@ -7275,28 +7275,28 @@
         <v>1736.656486961826</v>
       </c>
       <c r="R39" t="n">
-        <v>1658.657702698949</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="S39" t="n">
-        <v>1493.270504209403</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="T39" t="n">
-        <v>1294.030112927039</v>
+        <v>1736.656486961826</v>
       </c>
       <c r="U39" t="n">
-        <v>1067.122376634102</v>
+        <v>1715.860564240231</v>
       </c>
       <c r="V39" t="n">
-        <v>832.8711331597026</v>
+        <v>1481.609320765832</v>
       </c>
       <c r="W39" t="n">
-        <v>604.5979931071539</v>
+        <v>1229.094829099165</v>
       </c>
       <c r="X39" t="n">
-        <v>398.0710945127314</v>
+        <v>1022.567930504742</v>
       </c>
       <c r="Y39" t="n">
-        <v>192.3426587363818</v>
+        <v>816.8394947283929</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="C40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="D40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="E40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="F40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="G40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="H40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="K40" t="n">
-        <v>47.24885602294803</v>
+        <v>47.24885602294801</v>
       </c>
       <c r="L40" t="n">
         <v>119.0682917887916</v>
@@ -7369,13 +7369,13 @@
         <v>106.3578784768885</v>
       </c>
       <c r="W40" t="n">
-        <v>40.26660665598866</v>
+        <v>40.26660665598862</v>
       </c>
       <c r="X40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923652</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.968383252395</v>
+        <v>975.9683832523955</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5969217943016</v>
+        <v>811.5969217943018</v>
       </c>
       <c r="E41" t="n">
         <v>620.4443461940978</v>
@@ -7400,61 +7400,61 @@
         <v>404.8717425885874</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1932546093554</v>
+        <v>182.1932546093555</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="I41" t="n">
-        <v>50.7560922271896</v>
+        <v>50.75609222718953</v>
       </c>
       <c r="J41" t="n">
-        <v>286.2451994394138</v>
+        <v>94.30698338743888</v>
       </c>
       <c r="K41" t="n">
-        <v>473.7932886163276</v>
+        <v>281.8550725643527</v>
       </c>
       <c r="L41" t="n">
-        <v>758.4323554999141</v>
+        <v>566.4941394479392</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.360455342588</v>
+        <v>898.4222392906132</v>
       </c>
       <c r="N41" t="n">
-        <v>1412.142323868591</v>
+        <v>1220.204107816616</v>
       </c>
       <c r="O41" t="n">
-        <v>1669.86346629539</v>
+        <v>1477.925250243415</v>
       </c>
       <c r="P41" t="n">
-        <v>1951.077058278215</v>
+        <v>1852.883705599297</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.338234306756</v>
+        <v>2011.338234306757</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.504030892089</v>
+        <v>2068.50403089209</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.363938413307</v>
+        <v>2010.363938413308</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.347538805798</v>
+        <v>1874.347538805799</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.11205285684</v>
+        <v>1716.112052856841</v>
       </c>
       <c r="X41" t="n">
         <v>1537.339716270897</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.582053806098</v>
+        <v>1342.582053806099</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>851.2385815402399</v>
+        <v>988.3514446914514</v>
       </c>
       <c r="C42" t="n">
-        <v>678.485466462057</v>
+        <v>815.5983296132686</v>
       </c>
       <c r="D42" t="n">
-        <v>530.8971598210009</v>
+        <v>668.0100229722125</v>
       </c>
       <c r="E42" t="n">
-        <v>373.2876308238556</v>
+        <v>510.4004939750672</v>
       </c>
       <c r="F42" t="n">
-        <v>228.3318408404724</v>
+        <v>365.4447039916841</v>
       </c>
       <c r="G42" t="n">
         <v>228.3318408404724</v>
@@ -7485,55 +7485,55 @@
         <v>119.4994640908644</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
       <c r="J42" t="n">
-        <v>75.6318540167218</v>
+        <v>47.89637865329684</v>
       </c>
       <c r="K42" t="n">
-        <v>259.8714420406261</v>
+        <v>232.1359666772012</v>
       </c>
       <c r="L42" t="n">
-        <v>540.7184363158921</v>
+        <v>540.718436315893</v>
       </c>
       <c r="M42" t="n">
-        <v>953.6198175641759</v>
+        <v>953.6198175641769</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.848201751128</v>
+        <v>1392.848201751129</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.028344358979</v>
+        <v>1727.02834435898</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.810829564891</v>
+        <v>1978.810829564892</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="R42" t="n">
-        <v>2017.561036400564</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S42" t="n">
-        <v>2017.561036400564</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T42" t="n">
-        <v>2014.155984422327</v>
+        <v>2092.154768685205</v>
       </c>
       <c r="U42" t="n">
-        <v>1917.302202173639</v>
+        <v>1865.247032392268</v>
       </c>
       <c r="V42" t="n">
-        <v>1683.050958699239</v>
+        <v>1820.16382185045</v>
       </c>
       <c r="W42" t="n">
-        <v>1430.536467032573</v>
+        <v>1567.649330183784</v>
       </c>
       <c r="X42" t="n">
-        <v>1224.00956843815</v>
+        <v>1361.122431589361</v>
       </c>
       <c r="Y42" t="n">
-        <v>1018.2811326618</v>
+        <v>1155.393995813012</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="D43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="E43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="F43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="G43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="H43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="I43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="J43" t="n">
-        <v>41.91119641326883</v>
+        <v>42.30226256189535</v>
       </c>
       <c r="K43" t="n">
-        <v>54.42692269698032</v>
+        <v>54.81798884560685</v>
       </c>
       <c r="L43" t="n">
-        <v>126.2463584628239</v>
+        <v>126.6374246114505</v>
       </c>
       <c r="M43" t="n">
-        <v>212.5627832723293</v>
+        <v>212.9538494209558</v>
       </c>
       <c r="N43" t="n">
-        <v>301.9680583214007</v>
+        <v>302.3591244700273</v>
       </c>
       <c r="O43" t="n">
-        <v>369.2117039368852</v>
+        <v>369.6027700855117</v>
       </c>
       <c r="P43" t="n">
-        <v>403.5277780653844</v>
+        <v>403.9188442140109</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.5277780653844</v>
+        <v>403.9188442140109</v>
       </c>
       <c r="R43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140109</v>
       </c>
       <c r="S43" t="n">
-        <v>379.3047660034415</v>
+        <v>379.304766003442</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5197125413883</v>
+        <v>345.5197125413888</v>
       </c>
       <c r="U43" t="n">
-        <v>252.42636622144</v>
+        <v>252.4263662214403</v>
       </c>
       <c r="V43" t="n">
-        <v>192.770441821588</v>
+        <v>192.7704418215883</v>
       </c>
       <c r="W43" t="n">
-        <v>99.6233802293356</v>
+        <v>99.62338022933579</v>
       </c>
       <c r="X43" t="n">
-        <v>67.03411354123098</v>
+        <v>67.03411354123109</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326885</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C44" t="n">
-        <v>975.9683832523955</v>
+        <v>975.9683832523953</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5969217943018</v>
+        <v>811.5969217943016</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4443461940978</v>
+        <v>620.4443461940976</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8717425885875</v>
+        <v>404.8717425885874</v>
       </c>
       <c r="G44" t="n">
         <v>182.1932546093554</v>
@@ -7643,37 +7643,37 @@
         <v>41.91119641326883</v>
       </c>
       <c r="I44" t="n">
-        <v>50.75609222718958</v>
+        <v>50.75609222718959</v>
       </c>
       <c r="J44" t="n">
-        <v>286.2451994394137</v>
+        <v>94.3069833874389</v>
       </c>
       <c r="K44" t="n">
-        <v>656.2082276519319</v>
+        <v>281.8550725643526</v>
       </c>
       <c r="L44" t="n">
-        <v>940.8472945355184</v>
+        <v>664.6874921268584</v>
       </c>
       <c r="M44" t="n">
-        <v>1272.775394378192</v>
+        <v>996.6155919695323</v>
       </c>
       <c r="N44" t="n">
-        <v>1594.557262904195</v>
+        <v>1318.397460495535</v>
       </c>
       <c r="O44" t="n">
-        <v>1852.278405330994</v>
+        <v>1576.118602922334</v>
       </c>
       <c r="P44" t="n">
-        <v>2035.298644634901</v>
+        <v>1759.138842226241</v>
       </c>
       <c r="Q44" t="n">
-        <v>2095.559820663441</v>
+        <v>2011.338234306756</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T44" t="n">
         <v>2068.504030892089</v>
@@ -7691,7 +7691,7 @@
         <v>1537.339716270897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.582053806099</v>
+        <v>1342.582053806098</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.3480724547416</v>
+        <v>742.4062047906318</v>
       </c>
       <c r="C45" t="n">
-        <v>603.3480724547416</v>
+        <v>569.6530897124489</v>
       </c>
       <c r="D45" t="n">
-        <v>455.7597658136854</v>
+        <v>422.0647830713929</v>
       </c>
       <c r="E45" t="n">
-        <v>298.1502368165401</v>
+        <v>264.4552540742475</v>
       </c>
       <c r="F45" t="n">
-        <v>153.1944468331569</v>
+        <v>119.4994640908644</v>
       </c>
       <c r="G45" t="n">
-        <v>41.91119641326883</v>
+        <v>119.4994640908644</v>
       </c>
       <c r="H45" t="n">
-        <v>41.91119641326883</v>
+        <v>119.4994640908644</v>
       </c>
       <c r="I45" t="n">
         <v>41.91119641326883</v>
       </c>
       <c r="J45" t="n">
-        <v>75.63185401672179</v>
+        <v>47.89637865329655</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1359666772004</v>
+        <v>232.1359666772009</v>
       </c>
       <c r="L45" t="n">
-        <v>540.7184363158922</v>
+        <v>540.7184363158926</v>
       </c>
       <c r="M45" t="n">
-        <v>953.6198175641759</v>
+        <v>953.6198175641764</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.848201751128</v>
+        <v>1392.848201751129</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.028344358979</v>
+        <v>1727.02834435898</v>
       </c>
       <c r="P45" t="n">
         <v>1978.810829564891</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="R45" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="S45" t="n">
-        <v>2095.559820663441</v>
+        <v>2095.559820663442</v>
       </c>
       <c r="T45" t="n">
-        <v>1896.319429381077</v>
+        <v>2035.377561716967</v>
       </c>
       <c r="U45" t="n">
-        <v>1669.41169308814</v>
+        <v>1808.46982542403</v>
       </c>
       <c r="V45" t="n">
-        <v>1435.160449613741</v>
+        <v>1574.218581949631</v>
       </c>
       <c r="W45" t="n">
-        <v>1182.645957947074</v>
+        <v>1321.704090282964</v>
       </c>
       <c r="X45" t="n">
-        <v>976.1190593526516</v>
+        <v>1115.177191688542</v>
       </c>
       <c r="Y45" t="n">
-        <v>770.390623576302</v>
+        <v>909.4487559121923</v>
       </c>
     </row>
     <row r="46">
@@ -7798,7 +7798,7 @@
         <v>41.91119641326883</v>
       </c>
       <c r="H46" t="n">
-        <v>42.30226256189496</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="I46" t="n">
         <v>42.30226256189496</v>
@@ -7843,10 +7843,10 @@
         <v>192.770441821588</v>
       </c>
       <c r="W46" t="n">
-        <v>99.6233802293356</v>
+        <v>99.62338022933561</v>
       </c>
       <c r="X46" t="n">
-        <v>67.03411354123098</v>
+        <v>67.03411354123099</v>
       </c>
       <c r="Y46" t="n">
         <v>41.91119641326883</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750703</v>
       </c>
       <c r="K12" t="n">
         <v>88.94325252954206</v>
@@ -8784,7 +8784,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>237.6754614096485</v>
+        <v>271.7367317161667</v>
       </c>
       <c r="Q12" t="n">
         <v>100.5521054083635</v>
@@ -9006,7 +9006,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954206</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,13 +9015,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>201.3599731896437</v>
+        <v>480.9863851290695</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>237.6754614096485</v>
       </c>
       <c r="Q15" t="n">
         <v>100.5521054083635</v>
@@ -9240,19 +9240,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750703</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>385.6739591155975</v>
+        <v>73.97449483409071</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>83.43169935272422</v>
+        <v>429.1924339407492</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750703</v>
       </c>
       <c r="K21" t="n">
-        <v>88.94325252954208</v>
+        <v>88.94325252954206</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>326.2094114462295</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>387.4605671531835</v>
+        <v>480.9863851290695</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9717,7 +9717,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954206</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,7 +9726,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>201.3599731896438</v>
+        <v>387.4605671531826</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10671,19 +10671,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>110.5404999089819</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>489.015156525477</v>
+        <v>489.0151565254769</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>408.0780621259341</v>
       </c>
       <c r="P36" t="n">
-        <v>331.2012793855346</v>
+        <v>76.87553675330048</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5521054083635</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10902,7 +10902,7 @@
         <v>97.07340644750701</v>
       </c>
       <c r="K39" t="n">
-        <v>88.94325252954205</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10911,13 +10911,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.0151565254769</v>
+        <v>489.0151565254768</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>295.4986511014938</v>
+        <v>109.3980571379538</v>
       </c>
       <c r="Q39" t="n">
         <v>100.5521054083635</v>
@@ -11136,13 +11136,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>103.1190450737979</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>357.6583274353694</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
@@ -11373,10 +11373,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>103.1190450737977</v>
       </c>
       <c r="K45" t="n">
-        <v>247.0282148128538</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>126.9918236450466</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.0954837478051</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.2713114730586</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.7336715177291</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.4131254575977</v>
+        <v>129.4131254575978</v>
       </c>
       <c r="V11" t="n">
         <v>206.5106695150371</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.5075649930724</v>
       </c>
       <c r="X11" t="n">
-        <v>248.8390471236871</v>
+        <v>248.8390471236872</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.6645197437535</v>
+        <v>88.61113844039917</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.128284212116689</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.128284212118601</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.6985437984547</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>85.04210244445095</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.0954837478052</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.2713114730586</v>
       </c>
       <c r="G14" t="n">
-        <v>292.306137003043</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772393</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.63966577724247</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>129.4131254575978</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5106695150371</v>
+        <v>206.5106695150372</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.5075649930724</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.8390471236872</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.6645197437536</v>
+        <v>264.6645197437537</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.128284212119302</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.128284212118402</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.355920853283933e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1203097.85187158</v>
+        <v>1203097.851871581</v>
       </c>
     </row>
     <row r="8">
@@ -26314,16 +26314,16 @@
         <v>345166.4605461898</v>
       </c>
       <c r="C2" t="n">
+        <v>345166.4605461898</v>
+      </c>
+      <c r="D2" t="n">
         <v>345166.4605461899</v>
-      </c>
-      <c r="D2" t="n">
-        <v>345166.4605461898</v>
       </c>
       <c r="E2" t="n">
         <v>296879.3987947897</v>
       </c>
       <c r="F2" t="n">
-        <v>296879.3987947897</v>
+        <v>296879.3987947896</v>
       </c>
       <c r="G2" t="n">
         <v>345915.7486613483</v>
@@ -26335,25 +26335,25 @@
         <v>345915.7486613483</v>
       </c>
       <c r="J2" t="n">
+        <v>345915.7486613473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>345915.7486613477</v>
+      </c>
+      <c r="L2" t="n">
         <v>345915.7486613476</v>
       </c>
-      <c r="K2" t="n">
-        <v>345915.7486613474</v>
-      </c>
-      <c r="L2" t="n">
-        <v>345915.7486613475</v>
-      </c>
       <c r="M2" t="n">
+        <v>345915.7486613479</v>
+      </c>
+      <c r="N2" t="n">
         <v>345915.7486613478</v>
       </c>
-      <c r="N2" t="n">
-        <v>345915.7486613479</v>
-      </c>
       <c r="O2" t="n">
-        <v>345915.7486613484</v>
+        <v>345915.7486613483</v>
       </c>
       <c r="P2" t="n">
-        <v>345915.7486613483</v>
+        <v>345915.7486613482</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747253</v>
+        <v>80988.9363574726</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80988.93635747246</v>
+        <v>80988.9363574726</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.3997761863</v>
+        <v>97387.39977618627</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852323</v>
+        <v>32864.76537852318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>416705.6607992056</v>
       </c>
       <c r="E4" t="n">
-        <v>277460.6410902854</v>
+        <v>277460.6410902853</v>
       </c>
       <c r="F4" t="n">
         <v>277460.6410902853</v>
       </c>
       <c r="G4" t="n">
+        <v>343055.0800003025</v>
+      </c>
+      <c r="H4" t="n">
         <v>343055.0800003024</v>
       </c>
-      <c r="H4" t="n">
-        <v>343055.0800003023</v>
-      </c>
       <c r="I4" t="n">
-        <v>343055.0800003023</v>
+        <v>343055.0800003024</v>
       </c>
       <c r="J4" t="n">
         <v>340754.2524869653</v>
@@ -26488,7 +26488,7 @@
         <v>47530.94760072912</v>
       </c>
       <c r="I5" t="n">
-        <v>47530.94760072912</v>
+        <v>47530.94760072911</v>
       </c>
       <c r="J5" t="n">
         <v>58677.52513021651</v>
@@ -26506,10 +26506,10 @@
         <v>47800.81135056225</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444183</v>
+        <v>51004.33436444185</v>
       </c>
       <c r="P5" t="n">
-        <v>51004.33436444183</v>
+        <v>51004.33436444185</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105166.8002530158</v>
+        <v>-105171.2078301638</v>
       </c>
       <c r="C6" t="n">
-        <v>-105166.8002530158</v>
+        <v>-105171.2078301638</v>
       </c>
       <c r="D6" t="n">
-        <v>-105166.8002530158</v>
+        <v>-105171.2078301637</v>
       </c>
       <c r="E6" t="n">
-        <v>-349588.5724859212</v>
+        <v>-349877.0216027831</v>
       </c>
       <c r="F6" t="n">
-        <v>-19601.3662829292</v>
+        <v>-19889.81539979149</v>
       </c>
       <c r="G6" t="n">
-        <v>-125659.2152971557</v>
+        <v>-125659.2152971559</v>
       </c>
       <c r="H6" t="n">
-        <v>-44670.27893968316</v>
+        <v>-44670.27893968322</v>
       </c>
       <c r="I6" t="n">
-        <v>-44670.27893968316</v>
+        <v>-44670.27893968321</v>
       </c>
       <c r="J6" t="n">
-        <v>-163541.3597622265</v>
+        <v>-163541.3597622268</v>
       </c>
       <c r="K6" t="n">
-        <v>-53516.02895583441</v>
+        <v>-53516.02895583405</v>
       </c>
       <c r="L6" t="n">
-        <v>-134504.9653133067</v>
+        <v>-134504.9653133068</v>
       </c>
       <c r="M6" t="n">
         <v>-142079.8352622188</v>
       </c>
       <c r="N6" t="n">
-        <v>-44692.4354860325</v>
+        <v>-44692.43548603255</v>
       </c>
       <c r="O6" t="n">
-        <v>-77992.58471212382</v>
+        <v>-77992.58471212395</v>
       </c>
       <c r="P6" t="n">
-        <v>-45127.81933360078</v>
+        <v>-45127.81933360091</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="F2" t="n">
         <v>122.0225520074822</v>
@@ -26707,22 +26707,22 @@
         <v>223.2587224543229</v>
       </c>
       <c r="J2" t="n">
+        <v>142.1115946190626</v>
+      </c>
+      <c r="K2" t="n">
         <v>142.1115946190625</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142.1115946190626</v>
       </c>
       <c r="L2" t="n">
         <v>142.1115946190625</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="N2" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="O2" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="P2" t="n">
         <v>193.8769859110857</v>
@@ -26747,10 +26747,10 @@
         <v>130.8615028347921</v>
       </c>
       <c r="F3" t="n">
-        <v>130.8615028347922</v>
+        <v>130.8615028347921</v>
       </c>
       <c r="G3" t="n">
-        <v>130.8615028347922</v>
+        <v>130.8615028347921</v>
       </c>
       <c r="H3" t="n">
         <v>130.8615028347921</v>
@@ -26808,28 +26808,28 @@
         <v>426.1353503440491</v>
       </c>
       <c r="I4" t="n">
-        <v>426.1353503440491</v>
+        <v>426.1353503440489</v>
       </c>
       <c r="J4" t="n">
-        <v>721.6704723748039</v>
+        <v>721.6704723748038</v>
       </c>
       <c r="K4" t="n">
-        <v>721.6704723748038</v>
+        <v>721.6704723748037</v>
       </c>
       <c r="L4" t="n">
-        <v>721.6704723748038</v>
+        <v>721.6704723748037</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658603</v>
+        <v>523.8899551658606</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8899551658603</v>
+        <v>523.8899551658604</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468408</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.87542417222195</v>
+        <v>40.87542417222191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468408</v>
       </c>
       <c r="M2" t="n">
-        <v>78.55062316566216</v>
+        <v>78.55062316566213</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858299</v>
+        <v>14.09019229858283</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.5351220307548</v>
+        <v>295.5351220307549</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540372</v>
+        <v>89.72583342540406</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468407</v>
+        <v>101.2361704468408</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.87542417222195</v>
+        <v>40.87542417222191</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="C11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="D11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="E11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="F11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="H11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="I11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>108.8046764598881</v>
       </c>
       <c r="S11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="T11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="U11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="V11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="W11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="X11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="C12" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="D12" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="E12" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="F12" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>76.8123850008196</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>70.50128277853143</v>
       </c>
       <c r="T12" t="n">
-        <v>7.560985383652792</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="D13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="E13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="F13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="G13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="H13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="I13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="J13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="K13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="L13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="M13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="O13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="R13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="S13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="T13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="U13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="V13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="W13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="X13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.0225520074823</v>
+        <v>122.0225520074822</v>
       </c>
     </row>
     <row r="14">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7.560985383653332</v>
+        <v>122.0225520074822</v>
       </c>
       <c r="E15" t="n">
         <v>122.0225520074822</v>
@@ -28418,7 +28418,7 @@
         <v>122.0225520074822</v>
       </c>
       <c r="G15" t="n">
-        <v>122.0225520074822</v>
+        <v>7.560985383653417</v>
       </c>
       <c r="H15" t="n">
         <v>107.7440529821119</v>
@@ -28460,7 +28460,7 @@
         <v>122.0225520074822</v>
       </c>
       <c r="U15" t="n">
-        <v>122.0225520074822</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,10 +28694,10 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>86.4840915262441</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>113.2709179495497</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -28743,7 +28743,7 @@
         <v>146.661991856789</v>
       </c>
       <c r="J19" t="n">
-        <v>72.15507595161208</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S19" t="n">
-        <v>22.48377072535712</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T19" t="n">
         <v>223.2587224543229</v>
@@ -28785,7 +28785,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="X19" t="n">
-        <v>223.2587224543229</v>
+        <v>99.65264579174293</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>34.86529494568063</v>
+        <v>29.00390610169521</v>
       </c>
       <c r="H21" t="n">
         <v>107.7440529821119</v>
@@ -28928,16 +28928,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -29007,10 +29007,10 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S22" t="n">
-        <v>22.48377072535712</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2587224543229</v>
+        <v>27.49756984013101</v>
       </c>
       <c r="U22" t="n">
         <v>223.2587224543229</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>91.13197747984155</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.8123850008196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29180,10 +29180,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>6.936958192386328</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -29211,7 +29211,7 @@
         <v>167.6536091708978</v>
       </c>
       <c r="H25" t="n">
-        <v>23.7754577560865</v>
+        <v>159.5359974224836</v>
       </c>
       <c r="I25" t="n">
         <v>146.661991856789</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.00061294779456</v>
       </c>
       <c r="R25" t="n">
         <v>162.7806395874728</v>
@@ -29247,7 +29247,7 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2587224543229</v>
+        <v>27.49756984013095</v>
       </c>
       <c r="U25" t="n">
         <v>223.2587224543229</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="C26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="H26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="I26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="J26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="L26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="M26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="N26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="P26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="W26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="X26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
     </row>
     <row r="27">
@@ -29360,13 +29360,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>125.8677136083936</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.7440529821119</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.21879642024859</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.01877728750789</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="C28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="H28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="I28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="J28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>83.99523789666986</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="M28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.99523789667124</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="R28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="T28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="U28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="W28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="X28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190626</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="L29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="N29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="30">
@@ -29597,16 +29597,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I30" t="n">
         <v>76.8123850008196</v>
@@ -29639,13 +29639,13 @@
         <v>77.21879642024859</v>
       </c>
       <c r="S30" t="n">
-        <v>142.1115946190626</v>
+        <v>55.01877728750789</v>
       </c>
       <c r="T30" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>14.28137555119486</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J31" t="n">
-        <v>142.1115946190626</v>
+        <v>72.15507595161208</v>
       </c>
       <c r="K31" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>142.1115946190626</v>
+        <v>93.95114361632665</v>
       </c>
       <c r="N31" t="n">
-        <v>83.99523789666995</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.1115946190626</v>
+        <v>60.00061294779456</v>
       </c>
       <c r="R31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="32">
@@ -29782,7 +29782,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1115946190625</v>
+        <v>142.1115946190621</v>
       </c>
       <c r="O32" t="n">
         <v>142.1115946190625</v>
@@ -29791,7 +29791,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.1115946190637</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R32" t="n">
         <v>142.1115946190625</v>
@@ -29843,10 +29843,10 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S33" t="n">
-        <v>132.2375737077573</v>
+        <v>97.46362065137703</v>
       </c>
       <c r="T33" t="n">
         <v>142.1115946190625</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,13 +29928,13 @@
         <v>142.1115946190625</v>
       </c>
       <c r="J34" t="n">
-        <v>142.1115946190625</v>
+        <v>83.99523789667077</v>
       </c>
       <c r="K34" t="n">
         <v>142.1115946190625</v>
       </c>
       <c r="L34" t="n">
-        <v>83.99523789667185</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="C35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="D35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="E35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="F35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="G35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="H35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="I35" t="n">
-        <v>216.7334384969409</v>
+        <v>189.9482066233014</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>108.8046764598881</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8769859110857</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="X35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
     </row>
     <row r="36">
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>90.78892993265916</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.21879642024859</v>
+        <v>60.26367337079654</v>
       </c>
       <c r="S36" t="n">
         <v>163.7333265046506</v>
@@ -30119,10 +30119,10 @@
         <v>197.2479873695406</v>
       </c>
       <c r="U36" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V36" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6536091708978</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>159.5359974224836</v>
@@ -30195,22 +30195,22 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W37" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="X37" t="n">
-        <v>220.6622177847246</v>
+        <v>205.5371976894216</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.97004460156751</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="C38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="D38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="E38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="F38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="G38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="H38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="I38" t="n">
         <v>184.9427477152061</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>31.7906907817341</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>140.5953672416227</v>
+        <v>108.8046764598881</v>
       </c>
       <c r="S38" t="n">
         <v>193.8769859110857</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="X38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30314,7 +30314,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>107.7440529821119</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>204.0506954356286</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>23.99893809797686</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30432,19 +30432,19 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T40" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U40" t="n">
-        <v>37.88358851852385</v>
+        <v>37.88358851852379</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="W40" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="X40" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="C41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="D41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="E41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="F41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="G41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="H41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="I41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="J41" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>99.18520472618025</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>99.18520472618138</v>
       </c>
       <c r="R41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="T41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="U41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="V41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="W41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="X41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
     </row>
     <row r="42">
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21879642024859</v>
       </c>
       <c r="S42" t="n">
         <v>163.7333265046506</v>
       </c>
       <c r="T42" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="U42" t="n">
-        <v>128.7534145038062</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>187.2763526032557</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>180.4787078024277</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30663,28 +30663,28 @@
         <v>60.00061294779455</v>
       </c>
       <c r="R43" t="n">
-        <v>163.1756558992161</v>
+        <v>162.7806395874728</v>
       </c>
       <c r="S43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="T43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="V43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="W43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="X43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.8769859110857</v>
+        <v>193.8769859110856</v>
       </c>
     </row>
     <row r="44">
@@ -30718,31 +30718,31 @@
         <v>193.8769859110857</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>99.18520472618115</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>193.8769859110857</v>
       </c>
-      <c r="K44" t="n">
-        <v>184.2575141773783</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
-        <v>108.8046764598881</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="S44" t="n">
         <v>193.8769859110857</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>25.57131660401032</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H45" t="n">
         <v>107.7440529821119</v>
       </c>
       <c r="I45" t="n">
-        <v>76.8123850008196</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>137.667551012531</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30870,10 +30870,10 @@
         <v>167.6536091708978</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9310137342272</v>
+        <v>159.5359974224836</v>
       </c>
       <c r="I46" t="n">
-        <v>146.661991856789</v>
+        <v>147.0570081685325</v>
       </c>
       <c r="J46" t="n">
         <v>72.15507595161208</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5260763933056968</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H14" t="n">
-        <v>5.387679862941968</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I14" t="n">
         <v>20.28156015291789</v>
       </c>
       <c r="J14" t="n">
-        <v>44.65007628632942</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K14" t="n">
-        <v>66.91889001495957</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L14" t="n">
-        <v>83.0188004365888</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M14" t="n">
-        <v>92.37441149603899</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N14" t="n">
-        <v>93.86912604851881</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O14" t="n">
-        <v>88.63795391258527</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P14" t="n">
-        <v>75.65044295285088</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.8103321175906</v>
+        <v>56.81033211759058</v>
       </c>
       <c r="R14" t="n">
         <v>33.046146240989</v>
       </c>
       <c r="S14" t="n">
-        <v>11.98796581245358</v>
+        <v>11.98796581245357</v>
       </c>
       <c r="T14" t="n">
-        <v>2.302899411695689</v>
+        <v>2.302899411695688</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04208611146445573</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,40 +32069,40 @@
         <v>0.2814756853427605</v>
       </c>
       <c r="H15" t="n">
-        <v>2.718462540020872</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I15" t="n">
-        <v>9.691158464652062</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J15" t="n">
-        <v>26.59327955249301</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45215047045796</v>
+        <v>45.45215047045794</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11602545128667</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31951904496172</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N15" t="n">
-        <v>73.20713449622963</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O15" t="n">
-        <v>66.97022588942424</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P15" t="n">
-        <v>53.74951047567153</v>
+        <v>53.74951047567151</v>
       </c>
       <c r="Q15" t="n">
         <v>35.93012432550746</v>
       </c>
       <c r="R15" t="n">
-        <v>17.47618334084263</v>
+        <v>17.47618334084262</v>
       </c>
       <c r="S15" t="n">
-        <v>5.228287400993816</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T15" t="n">
         <v>1.134544538728056</v>
@@ -32151,19 +32151,19 @@
         <v>2.098074586433226</v>
       </c>
       <c r="I16" t="n">
-        <v>7.096554940614632</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J16" t="n">
         <v>16.68376897616686</v>
       </c>
       <c r="K16" t="n">
-        <v>27.41655747915809</v>
+        <v>27.41655747915808</v>
       </c>
       <c r="L16" t="n">
-        <v>35.08375438295396</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M16" t="n">
-        <v>36.99089989148067</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N16" t="n">
         <v>36.11133897078783</v>
@@ -32172,16 +32172,16 @@
         <v>33.35466632910408</v>
       </c>
       <c r="P16" t="n">
-        <v>28.54067924121433</v>
+        <v>28.54067924121432</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.76008692805362</v>
+        <v>19.76008692805361</v>
       </c>
       <c r="R16" t="n">
-        <v>10.61050808230954</v>
+        <v>10.61050808230953</v>
       </c>
       <c r="S16" t="n">
-        <v>4.112483621873713</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T16" t="n">
         <v>1.008277152989382</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5260763933056968</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H17" t="n">
-        <v>5.387679862941968</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I17" t="n">
         <v>20.28156015291789</v>
       </c>
       <c r="J17" t="n">
-        <v>44.65007628632942</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K17" t="n">
-        <v>66.91889001495957</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L17" t="n">
-        <v>83.0188004365888</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M17" t="n">
-        <v>92.37441149603899</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N17" t="n">
-        <v>93.86912604851881</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O17" t="n">
-        <v>88.63795391258527</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P17" t="n">
-        <v>75.65044295285088</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.8103321175906</v>
+        <v>56.81033211759058</v>
       </c>
       <c r="R17" t="n">
         <v>33.046146240989</v>
       </c>
       <c r="S17" t="n">
-        <v>11.98796581245358</v>
+        <v>11.98796581245357</v>
       </c>
       <c r="T17" t="n">
-        <v>2.302899411695689</v>
+        <v>2.302899411695688</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04208611146445573</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>0.2814756853427605</v>
       </c>
       <c r="H18" t="n">
-        <v>2.718462540020872</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I18" t="n">
-        <v>9.691158464652062</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J18" t="n">
-        <v>26.59327955249301</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45215047045796</v>
+        <v>45.45215047045794</v>
       </c>
       <c r="L18" t="n">
-        <v>61.11602545128667</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31951904496172</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N18" t="n">
-        <v>73.20713449622963</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O18" t="n">
-        <v>66.97022588942424</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P18" t="n">
-        <v>53.74951047567153</v>
+        <v>53.74951047567151</v>
       </c>
       <c r="Q18" t="n">
         <v>35.93012432550746</v>
       </c>
       <c r="R18" t="n">
-        <v>17.47618334084263</v>
+        <v>17.47618334084262</v>
       </c>
       <c r="S18" t="n">
-        <v>5.228287400993816</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T18" t="n">
         <v>1.134544538728056</v>
@@ -32388,19 +32388,19 @@
         <v>2.098074586433226</v>
       </c>
       <c r="I19" t="n">
-        <v>7.096554940614632</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J19" t="n">
         <v>16.68376897616686</v>
       </c>
       <c r="K19" t="n">
-        <v>27.41655747915809</v>
+        <v>27.41655747915808</v>
       </c>
       <c r="L19" t="n">
-        <v>35.08375438295396</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M19" t="n">
-        <v>36.99089989148067</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N19" t="n">
         <v>36.11133897078783</v>
@@ -32409,16 +32409,16 @@
         <v>33.35466632910408</v>
       </c>
       <c r="P19" t="n">
-        <v>28.54067924121433</v>
+        <v>28.54067924121432</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.76008692805362</v>
+        <v>19.76008692805361</v>
       </c>
       <c r="R19" t="n">
-        <v>10.61050808230954</v>
+        <v>10.61050808230953</v>
       </c>
       <c r="S19" t="n">
-        <v>4.112483621873713</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T19" t="n">
         <v>1.008277152989382</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H20" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I20" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291789</v>
       </c>
       <c r="J20" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K20" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L20" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M20" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N20" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O20" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P20" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q20" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R20" t="n">
-        <v>33.04614624098899</v>
+        <v>33.046146240989</v>
       </c>
       <c r="S20" t="n">
         <v>11.98796581245357</v>
@@ -32503,7 +32503,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04208611146445571</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2814756853427604</v>
+        <v>0.2814756853427605</v>
       </c>
       <c r="H21" t="n">
-        <v>2.71846254002087</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I21" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J21" t="n">
-        <v>26.59327955249299</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K21" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L21" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N21" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O21" t="n">
-        <v>66.97022588942421</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P21" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550746</v>
       </c>
       <c r="R21" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S21" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T21" t="n">
         <v>1.134544538728056</v>
@@ -32619,31 +32619,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2359797592102808</v>
+        <v>0.2359797592102809</v>
       </c>
       <c r="H22" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I22" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J22" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616686</v>
       </c>
       <c r="K22" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L22" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M22" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N22" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078783</v>
       </c>
       <c r="O22" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910408</v>
       </c>
       <c r="P22" t="n">
         <v>28.54067924121432</v>
@@ -32655,10 +32655,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S22" t="n">
-        <v>4.112483621873711</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T22" t="n">
-        <v>1.008277152989381</v>
+        <v>1.008277152989382</v>
       </c>
       <c r="U22" t="n">
         <v>0.0128716232296517</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H23" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I23" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291789</v>
       </c>
       <c r="J23" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K23" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L23" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M23" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N23" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O23" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P23" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q23" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R23" t="n">
-        <v>33.04614624098899</v>
+        <v>33.046146240989</v>
       </c>
       <c r="S23" t="n">
         <v>11.98796581245357</v>
@@ -32740,7 +32740,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04208611146445571</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2814756853427604</v>
+        <v>0.2814756853427605</v>
       </c>
       <c r="H24" t="n">
-        <v>2.71846254002087</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I24" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J24" t="n">
-        <v>26.59327955249299</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K24" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L24" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N24" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O24" t="n">
-        <v>66.97022588942421</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P24" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550746</v>
       </c>
       <c r="R24" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S24" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T24" t="n">
         <v>1.134544538728056</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2359797592102808</v>
+        <v>0.2359797592102809</v>
       </c>
       <c r="H25" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I25" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J25" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616686</v>
       </c>
       <c r="K25" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L25" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M25" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N25" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078783</v>
       </c>
       <c r="O25" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910408</v>
       </c>
       <c r="P25" t="n">
         <v>28.54067924121432</v>
@@ -32892,10 +32892,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S25" t="n">
-        <v>4.112483621873711</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T25" t="n">
-        <v>1.008277152989381</v>
+        <v>1.008277152989382</v>
       </c>
       <c r="U25" t="n">
         <v>0.0128716232296517</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H26" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I26" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291789</v>
       </c>
       <c r="J26" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K26" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L26" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M26" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N26" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O26" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P26" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q26" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R26" t="n">
-        <v>33.04614624098899</v>
+        <v>33.046146240989</v>
       </c>
       <c r="S26" t="n">
         <v>11.98796581245357</v>
@@ -32977,7 +32977,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04208611146445571</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2814756853427604</v>
+        <v>0.2814756853427605</v>
       </c>
       <c r="H27" t="n">
-        <v>2.71846254002087</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I27" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J27" t="n">
-        <v>26.59327955249299</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K27" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L27" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N27" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O27" t="n">
-        <v>66.97022588942421</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P27" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550746</v>
       </c>
       <c r="R27" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S27" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T27" t="n">
         <v>1.134544538728056</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2359797592102808</v>
+        <v>0.2359797592102809</v>
       </c>
       <c r="H28" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I28" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J28" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616686</v>
       </c>
       <c r="K28" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L28" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M28" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N28" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078783</v>
       </c>
       <c r="O28" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910408</v>
       </c>
       <c r="P28" t="n">
         <v>28.54067924121432</v>
@@ -33129,10 +33129,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S28" t="n">
-        <v>4.112483621873711</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T28" t="n">
-        <v>1.008277152989381</v>
+        <v>1.008277152989382</v>
       </c>
       <c r="U28" t="n">
         <v>0.0128716232296517</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H29" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I29" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291789</v>
       </c>
       <c r="J29" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K29" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L29" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M29" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N29" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O29" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P29" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q29" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R29" t="n">
-        <v>33.04614624098899</v>
+        <v>33.046146240989</v>
       </c>
       <c r="S29" t="n">
         <v>11.98796581245357</v>
@@ -33214,7 +33214,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04208611146445571</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2814756853427604</v>
+        <v>0.2814756853427605</v>
       </c>
       <c r="H30" t="n">
-        <v>2.71846254002087</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I30" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J30" t="n">
-        <v>26.59327955249299</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K30" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L30" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N30" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O30" t="n">
-        <v>66.97022588942421</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P30" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550746</v>
       </c>
       <c r="R30" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S30" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T30" t="n">
         <v>1.134544538728056</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2359797592102808</v>
+        <v>0.2359797592102809</v>
       </c>
       <c r="H31" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I31" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J31" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616686</v>
       </c>
       <c r="K31" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L31" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M31" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N31" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078783</v>
       </c>
       <c r="O31" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910408</v>
       </c>
       <c r="P31" t="n">
         <v>28.54067924121432</v>
@@ -33366,10 +33366,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S31" t="n">
-        <v>4.112483621873711</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T31" t="n">
-        <v>1.008277152989381</v>
+        <v>1.008277152989382</v>
       </c>
       <c r="U31" t="n">
         <v>0.0128716232296517</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H32" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I32" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291789</v>
       </c>
       <c r="J32" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K32" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L32" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M32" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N32" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O32" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P32" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q32" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R32" t="n">
-        <v>33.04614624098899</v>
+        <v>33.046146240989</v>
       </c>
       <c r="S32" t="n">
         <v>11.98796581245357</v>
@@ -33451,7 +33451,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04208611146445571</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2814756853427604</v>
+        <v>0.2814756853427605</v>
       </c>
       <c r="H33" t="n">
-        <v>2.71846254002087</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I33" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J33" t="n">
-        <v>26.59327955249299</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K33" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L33" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N33" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O33" t="n">
-        <v>66.97022588942421</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P33" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550746</v>
       </c>
       <c r="R33" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S33" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T33" t="n">
         <v>1.134544538728056</v>
@@ -33567,31 +33567,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2359797592102808</v>
+        <v>0.2359797592102809</v>
       </c>
       <c r="H34" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I34" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J34" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616686</v>
       </c>
       <c r="K34" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L34" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M34" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N34" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078783</v>
       </c>
       <c r="O34" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910408</v>
       </c>
       <c r="P34" t="n">
         <v>28.54067924121432</v>
@@ -33603,10 +33603,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S34" t="n">
-        <v>4.112483621873711</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T34" t="n">
-        <v>1.008277152989381</v>
+        <v>1.008277152989382</v>
       </c>
       <c r="U34" t="n">
         <v>0.0128716232296517</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5260763933056966</v>
+        <v>0.5260763933056967</v>
       </c>
       <c r="H35" t="n">
-        <v>5.387679862941965</v>
+        <v>5.387679862941967</v>
       </c>
       <c r="I35" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291789</v>
       </c>
       <c r="J35" t="n">
-        <v>44.6500762863294</v>
+        <v>44.65007628632941</v>
       </c>
       <c r="K35" t="n">
-        <v>66.91889001495954</v>
+        <v>66.91889001495956</v>
       </c>
       <c r="L35" t="n">
-        <v>83.01880043658878</v>
+        <v>83.01880043658879</v>
       </c>
       <c r="M35" t="n">
-        <v>92.37441149603895</v>
+        <v>92.37441149603897</v>
       </c>
       <c r="N35" t="n">
-        <v>93.86912604851877</v>
+        <v>93.86912604851879</v>
       </c>
       <c r="O35" t="n">
-        <v>88.63795391258525</v>
+        <v>88.63795391258526</v>
       </c>
       <c r="P35" t="n">
-        <v>75.65044295285085</v>
+        <v>75.65044295285087</v>
       </c>
       <c r="Q35" t="n">
         <v>56.81033211759058</v>
       </c>
       <c r="R35" t="n">
-        <v>33.04614624098899</v>
+        <v>33.046146240989</v>
       </c>
       <c r="S35" t="n">
         <v>11.98796581245357</v>
@@ -33688,7 +33688,7 @@
         <v>2.302899411695688</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04208611146445571</v>
+        <v>0.04208611146445572</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2814756853427604</v>
+        <v>0.2814756853427605</v>
       </c>
       <c r="H36" t="n">
-        <v>2.71846254002087</v>
+        <v>2.718462540020871</v>
       </c>
       <c r="I36" t="n">
-        <v>9.691158464652059</v>
+        <v>9.691158464652061</v>
       </c>
       <c r="J36" t="n">
-        <v>26.59327955249299</v>
+        <v>26.593279552493</v>
       </c>
       <c r="K36" t="n">
         <v>45.45215047045794</v>
       </c>
       <c r="L36" t="n">
-        <v>61.11602545128664</v>
+        <v>61.11602545128665</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31951904496169</v>
+        <v>71.31951904496171</v>
       </c>
       <c r="N36" t="n">
-        <v>73.2071344962296</v>
+        <v>73.20713449622961</v>
       </c>
       <c r="O36" t="n">
-        <v>66.97022588942421</v>
+        <v>66.97022588942423</v>
       </c>
       <c r="P36" t="n">
         <v>53.74951047567151</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.93012432550745</v>
+        <v>35.93012432550746</v>
       </c>
       <c r="R36" t="n">
         <v>17.47618334084262</v>
       </c>
       <c r="S36" t="n">
-        <v>5.228287400993813</v>
+        <v>5.228287400993814</v>
       </c>
       <c r="T36" t="n">
         <v>1.134544538728056</v>
@@ -33804,31 +33804,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2359797592102808</v>
+        <v>0.2359797592102809</v>
       </c>
       <c r="H37" t="n">
         <v>2.098074586433226</v>
       </c>
       <c r="I37" t="n">
-        <v>7.096554940614629</v>
+        <v>7.096554940614631</v>
       </c>
       <c r="J37" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616686</v>
       </c>
       <c r="K37" t="n">
         <v>27.41655747915808</v>
       </c>
       <c r="L37" t="n">
-        <v>35.08375438295394</v>
+        <v>35.08375438295395</v>
       </c>
       <c r="M37" t="n">
-        <v>36.99089989148065</v>
+        <v>36.99089989148066</v>
       </c>
       <c r="N37" t="n">
-        <v>36.11133897078782</v>
+        <v>36.11133897078783</v>
       </c>
       <c r="O37" t="n">
-        <v>33.35466632910407</v>
+        <v>33.35466632910408</v>
       </c>
       <c r="P37" t="n">
         <v>28.54067924121432</v>
@@ -33840,10 +33840,10 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S37" t="n">
-        <v>4.112483621873711</v>
+        <v>4.112483621873712</v>
       </c>
       <c r="T37" t="n">
-        <v>1.008277152989381</v>
+        <v>1.008277152989382</v>
       </c>
       <c r="U37" t="n">
         <v>0.0128716232296517</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>337.5556996038896</v>
       </c>
       <c r="P12" t="n">
-        <v>160.799924656348</v>
+        <v>194.8611949628662</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86747605587021</v>
+        <v>49.86747605587014</v>
       </c>
       <c r="K13" t="n">
-        <v>134.664699768807</v>
+        <v>134.6646997688069</v>
       </c>
       <c r="L13" t="n">
         <v>194.5674366194455</v>
@@ -35580,13 +35580,13 @@
         <v>212.330910642908</v>
       </c>
       <c r="O13" t="n">
-        <v>189.9454263665574</v>
+        <v>189.9454263665573</v>
       </c>
       <c r="P13" t="n">
-        <v>156.6852531473805</v>
+        <v>156.6852531473804</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.02193905968772</v>
+        <v>62.02193905968765</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.990799151767</v>
+        <v>43.99079915176699</v>
       </c>
       <c r="K14" t="n">
         <v>189.4425143201149</v>
       </c>
       <c r="L14" t="n">
-        <v>287.5142089733197</v>
+        <v>287.5142089733196</v>
       </c>
       <c r="M14" t="n">
         <v>335.2809089319939</v>
       </c>
       <c r="N14" t="n">
-        <v>325.0321904303062</v>
+        <v>325.0321904303061</v>
       </c>
       <c r="O14" t="n">
         <v>260.3243862896959</v>
@@ -35665,7 +35665,7 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.86987477630321</v>
+        <v>60.86987477630318</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>34.06127030651815</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>311.6994642815068</v>
@@ -35735,13 +35735,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N15" t="n">
-        <v>146.5089384046233</v>
+        <v>426.1353503440491</v>
       </c>
       <c r="O15" t="n">
         <v>337.5556996038896</v>
       </c>
       <c r="P15" t="n">
-        <v>254.3257426322342</v>
+        <v>160.799924656348</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86747605587011</v>
+        <v>49.8674760558701</v>
       </c>
       <c r="K16" t="n">
         <v>134.6646997688069</v>
@@ -35820,10 +35820,10 @@
         <v>189.9454263665573</v>
       </c>
       <c r="P16" t="n">
-        <v>156.6852531473804</v>
+        <v>156.6852531473803</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968763</v>
+        <v>62.02193905968761</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.990799151767</v>
+        <v>43.99079915176699</v>
       </c>
       <c r="K17" t="n">
         <v>189.4425143201149</v>
       </c>
       <c r="L17" t="n">
-        <v>287.5142089733197</v>
+        <v>287.5142089733196</v>
       </c>
       <c r="M17" t="n">
         <v>335.2809089319939</v>
       </c>
       <c r="N17" t="n">
-        <v>325.0321904303062</v>
+        <v>325.0321904303061</v>
       </c>
       <c r="O17" t="n">
         <v>260.3243862896959</v>
@@ -35902,7 +35902,7 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.86987477630321</v>
+        <v>60.8698747763032</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>186.1005939635397</v>
       </c>
       <c r="L18" t="n">
-        <v>311.6994642815068</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>417.0721022709938</v>
       </c>
       <c r="N18" t="n">
-        <v>28.58066456770387</v>
+        <v>374.3413991557288</v>
       </c>
       <c r="O18" t="n">
         <v>337.5556996038896</v>
@@ -35981,7 +35981,7 @@
         <v>254.3257426322342</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.9282738369196</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.64214776132474</v>
+        <v>12.64214776132473</v>
       </c>
       <c r="L19" t="n">
-        <v>72.54488461196324</v>
+        <v>72.54488461196323</v>
       </c>
       <c r="M19" t="n">
         <v>87.18830788838923</v>
@@ -36057,7 +36057,7 @@
         <v>67.92287435907514</v>
       </c>
       <c r="P19" t="n">
-        <v>34.66270113989817</v>
+        <v>34.66270113989816</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36127,19 +36127,19 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M20" t="n">
-        <v>335.2809089319938</v>
+        <v>335.2809089319939</v>
       </c>
       <c r="N20" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O20" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896959</v>
       </c>
       <c r="P20" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.86987477630319</v>
+        <v>60.8698747763032</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.06127030651815</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>311.6994642815068</v>
+        <v>252.2349166121388</v>
       </c>
       <c r="M21" t="n">
         <v>417.0721022709938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6095323681631</v>
+        <v>426.1353503440491</v>
       </c>
       <c r="O21" t="n">
         <v>337.5556996038896</v>
@@ -36285,7 +36285,7 @@
         <v>72.54488461196323</v>
       </c>
       <c r="M22" t="n">
-        <v>87.18830788838922</v>
+        <v>87.18830788838923</v>
       </c>
       <c r="N22" t="n">
         <v>90.30835863542572</v>
@@ -36364,19 +36364,19 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M23" t="n">
-        <v>335.2809089319938</v>
+        <v>335.2809089319939</v>
       </c>
       <c r="N23" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O23" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896959</v>
       </c>
       <c r="P23" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.86987477630319</v>
+        <v>60.8698747763032</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>34.06127030651815</v>
       </c>
       <c r="K24" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>311.6994642815068</v>
@@ -36446,7 +36446,7 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N24" t="n">
-        <v>146.5089384046234</v>
+        <v>332.6095323681622</v>
       </c>
       <c r="O24" t="n">
         <v>337.5556996038896</v>
@@ -36522,7 +36522,7 @@
         <v>72.54488461196323</v>
       </c>
       <c r="M25" t="n">
-        <v>87.18830788838922</v>
+        <v>87.18830788838923</v>
       </c>
       <c r="N25" t="n">
         <v>90.30835863542572</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1023937708295</v>
+        <v>186.1023937708296</v>
       </c>
       <c r="K26" t="n">
-        <v>331.5541089391774</v>
+        <v>331.5541089391775</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6258035923821</v>
+        <v>429.6258035923822</v>
       </c>
       <c r="M26" t="n">
-        <v>477.3925035510564</v>
+        <v>477.3925035510565</v>
       </c>
       <c r="N26" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493687</v>
       </c>
       <c r="O26" t="n">
         <v>402.4359809087584</v>
       </c>
       <c r="P26" t="n">
-        <v>326.9805232088675</v>
+        <v>326.9805232088676</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.9814693953657</v>
+        <v>202.9814693953658</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917443</v>
+        <v>33.3069181591745</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.95651866745044</v>
+        <v>69.9565186674505</v>
       </c>
       <c r="K28" t="n">
-        <v>12.64214776132473</v>
+        <v>96.63738565799459</v>
       </c>
       <c r="L28" t="n">
-        <v>72.54488461196323</v>
+        <v>214.6564792310258</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2999025074517</v>
+        <v>229.2999025074518</v>
       </c>
       <c r="N28" t="n">
         <v>90.30835863542572</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0344689781377</v>
+        <v>67.92287435907514</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589607</v>
+        <v>34.66270113989816</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.99462494887668</v>
+        <v>82.11098167126801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.1023937708296</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K29" t="n">
-        <v>331.5541089391775</v>
+        <v>331.5541089391774</v>
       </c>
       <c r="L29" t="n">
         <v>429.6258035923822</v>
@@ -36850,10 +36850,10 @@
         <v>326.9805232088676</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.9814693953658</v>
+        <v>202.9814693953657</v>
       </c>
       <c r="R29" t="n">
-        <v>33.30691815917449</v>
+        <v>33.30691815917447</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.9565186674505</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7537423803873</v>
+        <v>12.64214776132473</v>
       </c>
       <c r="L31" t="n">
         <v>72.54488461196323</v>
       </c>
       <c r="M31" t="n">
-        <v>229.2999025074518</v>
+        <v>181.1394515047159</v>
       </c>
       <c r="N31" t="n">
-        <v>174.3035965320957</v>
+        <v>232.4199532544882</v>
       </c>
       <c r="O31" t="n">
-        <v>67.92287435907514</v>
+        <v>210.0344689781377</v>
       </c>
       <c r="P31" t="n">
-        <v>34.66270113989816</v>
+        <v>176.7742957589607</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.11098167126801</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>331.5541089391774</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6258035923821</v>
+        <v>429.6258035923822</v>
       </c>
       <c r="M32" t="n">
-        <v>477.3925035510563</v>
+        <v>477.3925035510564</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493683</v>
       </c>
       <c r="O32" t="n">
         <v>402.4359809087584</v>
       </c>
       <c r="P32" t="n">
-        <v>326.9805232088675</v>
+        <v>326.9805232088676</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9814693953669</v>
+        <v>202.9814693953657</v>
       </c>
       <c r="R32" t="n">
-        <v>33.3069181591744</v>
+        <v>33.30691815917447</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.95651866745041</v>
+        <v>11.84016194505869</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7537423803872</v>
+        <v>154.7537423803873</v>
       </c>
       <c r="L34" t="n">
-        <v>156.5401225086351</v>
+        <v>72.54488461196323</v>
       </c>
       <c r="M34" t="n">
-        <v>87.18830788838922</v>
+        <v>87.18830788838923</v>
       </c>
       <c r="N34" t="n">
         <v>232.4199532544882</v>
       </c>
       <c r="O34" t="n">
-        <v>67.92287435907514</v>
+        <v>210.0344689781377</v>
       </c>
       <c r="P34" t="n">
         <v>34.66270113989816</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11098167126792</v>
+        <v>82.11098167126798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.79069078173481</v>
+        <v>5.00545890809523</v>
       </c>
       <c r="J35" t="n">
         <v>43.99079915176699</v>
@@ -37312,25 +37312,25 @@
         <v>287.5142089733196</v>
       </c>
       <c r="M35" t="n">
-        <v>335.2809089319938</v>
+        <v>335.2809089319939</v>
       </c>
       <c r="N35" t="n">
         <v>325.0321904303061</v>
       </c>
       <c r="O35" t="n">
-        <v>260.3243862896958</v>
+        <v>260.3243862896959</v>
       </c>
       <c r="P35" t="n">
         <v>184.868928589805</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.86987477630319</v>
+        <v>60.8698747763032</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.78523187363901</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>311.6994642815068</v>
       </c>
       <c r="M36" t="n">
-        <v>43.27933587997569</v>
+        <v>417.0721022709938</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="O36" t="n">
-        <v>337.5556996038896</v>
+        <v>336.016949682025</v>
       </c>
       <c r="P36" t="n">
-        <v>254.3257426322342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9282738369195</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>72.54488461196323</v>
       </c>
       <c r="M37" t="n">
-        <v>87.18830788838922</v>
+        <v>87.18830788838923</v>
       </c>
       <c r="N37" t="n">
         <v>90.30835863542572</v>
@@ -37555,7 +37555,7 @@
         <v>325.0321904303062</v>
       </c>
       <c r="O38" t="n">
-        <v>260.3243862896959</v>
+        <v>292.11507707143</v>
       </c>
       <c r="P38" t="n">
         <v>184.868928589805</v>
@@ -37564,7 +37564,7 @@
         <v>60.86987477630323</v>
       </c>
       <c r="R38" t="n">
-        <v>31.7906907817346</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L39" t="n">
         <v>311.6994642815069</v>
@@ -37631,13 +37631,13 @@
         <v>417.0721022709938</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404565</v>
       </c>
       <c r="O39" t="n">
         <v>337.5556996038897</v>
       </c>
       <c r="P39" t="n">
-        <v>218.6231143481934</v>
+        <v>32.52252038465334</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.934238195879566</v>
+        <v>8.93423819587948</v>
       </c>
       <c r="J41" t="n">
-        <v>237.8677850628527</v>
+        <v>43.99079915176701</v>
       </c>
       <c r="K41" t="n">
         <v>189.4425143201149</v>
@@ -37795,13 +37795,13 @@
         <v>260.3243862896959</v>
       </c>
       <c r="P41" t="n">
-        <v>284.0541333159853</v>
+        <v>378.7459145008906</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.86987477630323</v>
+        <v>160.0550795024846</v>
       </c>
       <c r="R41" t="n">
-        <v>85.07230945119761</v>
+        <v>85.07230945119753</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.06127030651816</v>
+        <v>6.045638626290898</v>
       </c>
       <c r="K42" t="n">
         <v>186.1005939635397</v>
       </c>
       <c r="L42" t="n">
-        <v>283.6838326012788</v>
+        <v>311.6994642815069</v>
       </c>
       <c r="M42" t="n">
         <v>417.0721022709938</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.3950163117439465</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3950163117433866</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>8.934238195879551</v>
       </c>
       <c r="J44" t="n">
-        <v>237.8677850628527</v>
+        <v>43.99079915176699</v>
       </c>
       <c r="K44" t="n">
-        <v>373.7000284974931</v>
+        <v>189.4425143201149</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5142089733196</v>
+        <v>386.6994136995008</v>
       </c>
       <c r="M44" t="n">
         <v>335.2809089319938</v>
@@ -38035,10 +38035,10 @@
         <v>184.868928589805</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.86987477630319</v>
+        <v>254.7468606873889</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.0723094511976</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.06127030651815</v>
+        <v>6.045638626290625</v>
       </c>
       <c r="K45" t="n">
-        <v>158.0849622833118</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L45" t="n">
         <v>311.6994642815068</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3950163117435661</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.3950163117435589</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
